--- a/FlightData/1_27_2023FlightData.xlsx
+++ b/FlightData/1_27_2023FlightData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jacob\Patience\FlightData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486EC2E0-FFAF-4C60-BA1A-7D37C9D9989F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34AF8BEC-0EDA-4C5B-8026-E2ABEBF9A8B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6E13D471-1E9A-4AB8-BC08-0586E0700029}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="15">
   <si>
     <t>N</t>
   </si>
@@ -432,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D189EAEC-92BB-456B-8818-CC544A0A0E3D}">
-  <dimension ref="A1:M103"/>
+  <dimension ref="A1:M354"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="M96" sqref="M96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3750,6 +3750,8038 @@
         <v>14.78</v>
       </c>
     </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>3503.4485</v>
+      </c>
+      <c r="C104" t="s">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>8505.1641</v>
+      </c>
+      <c r="E104" t="s">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>360.4</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>74.41</v>
+      </c>
+      <c r="I104">
+        <v>54.53</v>
+      </c>
+      <c r="J104">
+        <v>15.59</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>3503.4485</v>
+      </c>
+      <c r="C105" t="s">
+        <v>0</v>
+      </c>
+      <c r="D105">
+        <v>8505.1641</v>
+      </c>
+      <c r="E105" t="s">
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <v>359.8</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>74.34</v>
+      </c>
+      <c r="I105">
+        <v>54.62</v>
+      </c>
+      <c r="J105">
+        <v>16.54</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>3503.4485</v>
+      </c>
+      <c r="C106" t="s">
+        <v>0</v>
+      </c>
+      <c r="D106">
+        <v>8505.1641</v>
+      </c>
+      <c r="E106" t="s">
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <v>359.8</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>74.25</v>
+      </c>
+      <c r="I106">
+        <v>54.61</v>
+      </c>
+      <c r="J106">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>3503.4485</v>
+      </c>
+      <c r="C107" t="s">
+        <v>0</v>
+      </c>
+      <c r="D107">
+        <v>8505.1641</v>
+      </c>
+      <c r="E107" t="s">
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <v>359.8</v>
+      </c>
+      <c r="G107">
+        <v>0</v>
+      </c>
+      <c r="H107">
+        <v>74.23</v>
+      </c>
+      <c r="I107">
+        <v>54.63</v>
+      </c>
+      <c r="J107">
+        <v>18.77</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>3503.4485</v>
+      </c>
+      <c r="C108" t="s">
+        <v>0</v>
+      </c>
+      <c r="D108">
+        <v>8505.1641</v>
+      </c>
+      <c r="E108" t="s">
+        <v>1</v>
+      </c>
+      <c r="F108">
+        <v>359.8</v>
+      </c>
+      <c r="G108">
+        <v>0</v>
+      </c>
+      <c r="H108">
+        <v>74.22</v>
+      </c>
+      <c r="I108">
+        <v>54.66</v>
+      </c>
+      <c r="J108">
+        <v>20.09</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>3503.4485</v>
+      </c>
+      <c r="C109" t="s">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <v>8505.1641</v>
+      </c>
+      <c r="E109" t="s">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>359.8</v>
+      </c>
+      <c r="G109">
+        <v>0</v>
+      </c>
+      <c r="H109">
+        <v>74.17</v>
+      </c>
+      <c r="I109">
+        <v>54.67</v>
+      </c>
+      <c r="J109">
+        <v>21.56</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>3503.4485</v>
+      </c>
+      <c r="C110" t="s">
+        <v>0</v>
+      </c>
+      <c r="D110">
+        <v>8505.1641</v>
+      </c>
+      <c r="E110" t="s">
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>359.8</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+      <c r="H110">
+        <v>74.22</v>
+      </c>
+      <c r="I110">
+        <v>54.69</v>
+      </c>
+      <c r="J110">
+        <v>23.03</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>3503.4485</v>
+      </c>
+      <c r="C111" t="s">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>8505.1641</v>
+      </c>
+      <c r="E111" t="s">
+        <v>1</v>
+      </c>
+      <c r="F111">
+        <v>359.8</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>74.19</v>
+      </c>
+      <c r="I111">
+        <v>54.76</v>
+      </c>
+      <c r="J111">
+        <v>24.34</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>3503.4485</v>
+      </c>
+      <c r="C112" t="s">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>8505.1641</v>
+      </c>
+      <c r="E112" t="s">
+        <v>1</v>
+      </c>
+      <c r="F112">
+        <v>359.8</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>74.2</v>
+      </c>
+      <c r="I112">
+        <v>54.78</v>
+      </c>
+      <c r="J112">
+        <v>25.91</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>3503.4485</v>
+      </c>
+      <c r="C113" t="s">
+        <v>0</v>
+      </c>
+      <c r="D113">
+        <v>8505.1641</v>
+      </c>
+      <c r="E113" t="s">
+        <v>1</v>
+      </c>
+      <c r="F113">
+        <v>359.8</v>
+      </c>
+      <c r="G113">
+        <v>0</v>
+      </c>
+      <c r="H113">
+        <v>74.22</v>
+      </c>
+      <c r="I113">
+        <v>54.76</v>
+      </c>
+      <c r="J113">
+        <v>27.49</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>3503.4485</v>
+      </c>
+      <c r="C114" t="s">
+        <v>0</v>
+      </c>
+      <c r="D114">
+        <v>8505.1641</v>
+      </c>
+      <c r="E114" t="s">
+        <v>1</v>
+      </c>
+      <c r="F114">
+        <v>359.8</v>
+      </c>
+      <c r="G114">
+        <v>0</v>
+      </c>
+      <c r="H114">
+        <v>74.19</v>
+      </c>
+      <c r="I114">
+        <v>54.77</v>
+      </c>
+      <c r="J114">
+        <v>29.24</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>3503.4485</v>
+      </c>
+      <c r="C115" t="s">
+        <v>0</v>
+      </c>
+      <c r="D115">
+        <v>8505.1641</v>
+      </c>
+      <c r="E115" t="s">
+        <v>1</v>
+      </c>
+      <c r="F115">
+        <v>359.8</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>74.22</v>
+      </c>
+      <c r="I115">
+        <v>54.82</v>
+      </c>
+      <c r="J115">
+        <v>30.68</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>3503.4485</v>
+      </c>
+      <c r="C116" t="s">
+        <v>0</v>
+      </c>
+      <c r="D116">
+        <v>8505.1641</v>
+      </c>
+      <c r="E116" t="s">
+        <v>1</v>
+      </c>
+      <c r="F116">
+        <v>359.8</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>74.22</v>
+      </c>
+      <c r="I116">
+        <v>54.78</v>
+      </c>
+      <c r="J116">
+        <v>32.409999999999997</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>3503.4485</v>
+      </c>
+      <c r="C117" t="s">
+        <v>0</v>
+      </c>
+      <c r="D117">
+        <v>8505.1641</v>
+      </c>
+      <c r="E117" t="s">
+        <v>1</v>
+      </c>
+      <c r="F117">
+        <v>359.8</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>74.25</v>
+      </c>
+      <c r="I117">
+        <v>54.8</v>
+      </c>
+      <c r="J117">
+        <v>34.15</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>3503.4485</v>
+      </c>
+      <c r="C118" t="s">
+        <v>0</v>
+      </c>
+      <c r="D118">
+        <v>8505.1641</v>
+      </c>
+      <c r="E118" t="s">
+        <v>1</v>
+      </c>
+      <c r="F118">
+        <v>359.8</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>74.260000000000005</v>
+      </c>
+      <c r="I118">
+        <v>54.83</v>
+      </c>
+      <c r="J118">
+        <v>35.93</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>3503.4485</v>
+      </c>
+      <c r="C119" t="s">
+        <v>0</v>
+      </c>
+      <c r="D119">
+        <v>8505.1641</v>
+      </c>
+      <c r="E119" t="s">
+        <v>1</v>
+      </c>
+      <c r="F119">
+        <v>359.8</v>
+      </c>
+      <c r="G119">
+        <v>0</v>
+      </c>
+      <c r="H119">
+        <v>74.27</v>
+      </c>
+      <c r="I119">
+        <v>54.88</v>
+      </c>
+      <c r="J119">
+        <v>37.46</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>3503.4485</v>
+      </c>
+      <c r="C120" t="s">
+        <v>0</v>
+      </c>
+      <c r="D120">
+        <v>8505.1641</v>
+      </c>
+      <c r="E120" t="s">
+        <v>1</v>
+      </c>
+      <c r="F120">
+        <v>359.8</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+      <c r="H120">
+        <v>74.27</v>
+      </c>
+      <c r="I120">
+        <v>54.88</v>
+      </c>
+      <c r="J120">
+        <v>39.270000000000003</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>3503.4485</v>
+      </c>
+      <c r="C121" t="s">
+        <v>0</v>
+      </c>
+      <c r="D121">
+        <v>8505.1641</v>
+      </c>
+      <c r="E121" t="s">
+        <v>1</v>
+      </c>
+      <c r="F121">
+        <v>359.8</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+      <c r="H121">
+        <v>74.3</v>
+      </c>
+      <c r="I121">
+        <v>54.95</v>
+      </c>
+      <c r="J121">
+        <v>41.01</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>3503.4485</v>
+      </c>
+      <c r="C122" t="s">
+        <v>0</v>
+      </c>
+      <c r="D122">
+        <v>8505.1641</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1</v>
+      </c>
+      <c r="F122">
+        <v>359.8</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>74.349999999999994</v>
+      </c>
+      <c r="I122">
+        <v>54.91</v>
+      </c>
+      <c r="J122">
+        <v>42.81</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>3503.4485</v>
+      </c>
+      <c r="C123" t="s">
+        <v>0</v>
+      </c>
+      <c r="D123">
+        <v>8505.1641</v>
+      </c>
+      <c r="E123" t="s">
+        <v>1</v>
+      </c>
+      <c r="F123">
+        <v>359.8</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+      <c r="H123">
+        <v>74.33</v>
+      </c>
+      <c r="I123">
+        <v>55.01</v>
+      </c>
+      <c r="J123">
+        <v>44.33</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>3503.4481999999998</v>
+      </c>
+      <c r="C124" t="s">
+        <v>0</v>
+      </c>
+      <c r="D124">
+        <v>8505.1641</v>
+      </c>
+      <c r="E124" t="s">
+        <v>1</v>
+      </c>
+      <c r="F124">
+        <v>359.8</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
+      <c r="H124">
+        <v>74.349999999999994</v>
+      </c>
+      <c r="I124">
+        <v>54.99</v>
+      </c>
+      <c r="J124">
+        <v>46.08</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>3503.4481999999998</v>
+      </c>
+      <c r="C125" t="s">
+        <v>0</v>
+      </c>
+      <c r="D125">
+        <v>8505.1641</v>
+      </c>
+      <c r="E125" t="s">
+        <v>1</v>
+      </c>
+      <c r="F125">
+        <v>359.8</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
+      <c r="H125">
+        <v>74.36</v>
+      </c>
+      <c r="I125">
+        <v>55.02</v>
+      </c>
+      <c r="J125">
+        <v>47.82</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>3503.4481999999998</v>
+      </c>
+      <c r="C126" t="s">
+        <v>0</v>
+      </c>
+      <c r="D126">
+        <v>8505.1641</v>
+      </c>
+      <c r="E126" t="s">
+        <v>1</v>
+      </c>
+      <c r="F126">
+        <v>359.8</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
+      <c r="H126">
+        <v>74.36</v>
+      </c>
+      <c r="I126">
+        <v>55.21</v>
+      </c>
+      <c r="J126">
+        <v>49.49</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>3503.4481999999998</v>
+      </c>
+      <c r="C127" t="s">
+        <v>0</v>
+      </c>
+      <c r="D127">
+        <v>8505.1641</v>
+      </c>
+      <c r="E127" t="s">
+        <v>1</v>
+      </c>
+      <c r="F127">
+        <v>359.8</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
+      <c r="H127">
+        <v>74.22</v>
+      </c>
+      <c r="I127">
+        <v>55.71</v>
+      </c>
+      <c r="J127">
+        <v>51.01</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>3503.4481999999998</v>
+      </c>
+      <c r="C128" t="s">
+        <v>0</v>
+      </c>
+      <c r="D128">
+        <v>8505.1641</v>
+      </c>
+      <c r="E128" t="s">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>359.8</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="H128">
+        <v>74.34</v>
+      </c>
+      <c r="I128">
+        <v>55.61</v>
+      </c>
+      <c r="J128">
+        <v>52.58</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>3503.4481999999998</v>
+      </c>
+      <c r="C129" t="s">
+        <v>0</v>
+      </c>
+      <c r="D129">
+        <v>8505.1641</v>
+      </c>
+      <c r="E129" t="s">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>359.8</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
+      <c r="H129">
+        <v>74.28</v>
+      </c>
+      <c r="I129">
+        <v>55.69</v>
+      </c>
+      <c r="J129">
+        <v>54.16</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>3503.4481999999998</v>
+      </c>
+      <c r="C130" t="s">
+        <v>0</v>
+      </c>
+      <c r="D130">
+        <v>8505.1641</v>
+      </c>
+      <c r="E130" t="s">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>359.8</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
+      <c r="H130">
+        <v>74.349999999999994</v>
+      </c>
+      <c r="I130">
+        <v>55.68</v>
+      </c>
+      <c r="J130">
+        <v>55.6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>3503.4481999999998</v>
+      </c>
+      <c r="C131" t="s">
+        <v>0</v>
+      </c>
+      <c r="D131">
+        <v>8505.1641</v>
+      </c>
+      <c r="E131" t="s">
+        <v>1</v>
+      </c>
+      <c r="F131">
+        <v>359.8</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
+      <c r="H131">
+        <v>74.39</v>
+      </c>
+      <c r="I131">
+        <v>55.66</v>
+      </c>
+      <c r="J131">
+        <v>56.8</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>3503.4481999999998</v>
+      </c>
+      <c r="C132" t="s">
+        <v>0</v>
+      </c>
+      <c r="D132">
+        <v>8505.1641</v>
+      </c>
+      <c r="E132" t="s">
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <v>359.8</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
+      <c r="H132">
+        <v>74.349999999999994</v>
+      </c>
+      <c r="I132">
+        <v>55.65</v>
+      </c>
+      <c r="J132">
+        <v>58.23</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>3503.4481999999998</v>
+      </c>
+      <c r="C133" t="s">
+        <v>0</v>
+      </c>
+      <c r="D133">
+        <v>8505.1641</v>
+      </c>
+      <c r="E133" t="s">
+        <v>1</v>
+      </c>
+      <c r="F133">
+        <v>359.8</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="H133">
+        <v>74.44</v>
+      </c>
+      <c r="I133">
+        <v>55.67</v>
+      </c>
+      <c r="J133">
+        <v>59.52</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>3503.4481999999998</v>
+      </c>
+      <c r="C134" t="s">
+        <v>0</v>
+      </c>
+      <c r="D134">
+        <v>8505.1641</v>
+      </c>
+      <c r="E134" t="s">
+        <v>1</v>
+      </c>
+      <c r="F134">
+        <v>359.8</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="H134">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="I134">
+        <v>55.74</v>
+      </c>
+      <c r="J134">
+        <v>60.81</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>3503.4481999999998</v>
+      </c>
+      <c r="C135" t="s">
+        <v>0</v>
+      </c>
+      <c r="D135">
+        <v>8505.1641</v>
+      </c>
+      <c r="E135" t="s">
+        <v>1</v>
+      </c>
+      <c r="F135">
+        <v>359.8</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="H135">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="I135">
+        <v>55.74</v>
+      </c>
+      <c r="J135">
+        <v>61.92</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>3503.4481999999998</v>
+      </c>
+      <c r="C136" t="s">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>8505.1641</v>
+      </c>
+      <c r="E136" t="s">
+        <v>1</v>
+      </c>
+      <c r="F136">
+        <v>359.8</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="H136">
+        <v>74.48</v>
+      </c>
+      <c r="I136">
+        <v>55.74</v>
+      </c>
+      <c r="J136">
+        <v>63.08</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>3503.4481999999998</v>
+      </c>
+      <c r="C137" t="s">
+        <v>0</v>
+      </c>
+      <c r="D137">
+        <v>8505.1641</v>
+      </c>
+      <c r="E137" t="s">
+        <v>1</v>
+      </c>
+      <c r="F137">
+        <v>359.8</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
+      <c r="H137">
+        <v>74.489999999999995</v>
+      </c>
+      <c r="I137">
+        <v>55.72</v>
+      </c>
+      <c r="J137">
+        <v>64.27</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>3503.4481999999998</v>
+      </c>
+      <c r="C138" t="s">
+        <v>0</v>
+      </c>
+      <c r="D138">
+        <v>8505.1641</v>
+      </c>
+      <c r="E138" t="s">
+        <v>1</v>
+      </c>
+      <c r="F138">
+        <v>359.8</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
+      <c r="H138">
+        <v>74.5</v>
+      </c>
+      <c r="I138">
+        <v>55.8</v>
+      </c>
+      <c r="J138">
+        <v>65.3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>3503.4481999999998</v>
+      </c>
+      <c r="C139" t="s">
+        <v>0</v>
+      </c>
+      <c r="D139">
+        <v>8505.1641</v>
+      </c>
+      <c r="E139" t="s">
+        <v>1</v>
+      </c>
+      <c r="F139">
+        <v>359.8</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
+      <c r="H139">
+        <v>74.55</v>
+      </c>
+      <c r="I139">
+        <v>55.83</v>
+      </c>
+      <c r="J139">
+        <v>66.06</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>3503.4481999999998</v>
+      </c>
+      <c r="C140" t="s">
+        <v>0</v>
+      </c>
+      <c r="D140">
+        <v>8505.1641</v>
+      </c>
+      <c r="E140" t="s">
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <v>359.8</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140">
+        <v>74.48</v>
+      </c>
+      <c r="I140">
+        <v>55.82</v>
+      </c>
+      <c r="J140">
+        <v>67.040000000000006</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>3503.4481999999998</v>
+      </c>
+      <c r="C141" t="s">
+        <v>0</v>
+      </c>
+      <c r="D141">
+        <v>8505.1641</v>
+      </c>
+      <c r="E141" t="s">
+        <v>1</v>
+      </c>
+      <c r="F141">
+        <v>359.8</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
+      <c r="H141">
+        <v>74.540000000000006</v>
+      </c>
+      <c r="I141">
+        <v>55.83</v>
+      </c>
+      <c r="J141">
+        <v>67.89</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>3503.4481999999998</v>
+      </c>
+      <c r="C142" t="s">
+        <v>0</v>
+      </c>
+      <c r="D142">
+        <v>8505.1641</v>
+      </c>
+      <c r="E142" t="s">
+        <v>1</v>
+      </c>
+      <c r="F142">
+        <v>359.8</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="H142">
+        <v>74.56</v>
+      </c>
+      <c r="I142">
+        <v>55.87</v>
+      </c>
+      <c r="J142">
+        <v>68.75</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>3503.4481999999998</v>
+      </c>
+      <c r="C143" t="s">
+        <v>0</v>
+      </c>
+      <c r="D143">
+        <v>8505.1641</v>
+      </c>
+      <c r="E143" t="s">
+        <v>1</v>
+      </c>
+      <c r="F143">
+        <v>359.8</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
+      <c r="H143">
+        <v>74.540000000000006</v>
+      </c>
+      <c r="I143">
+        <v>55.89</v>
+      </c>
+      <c r="J143">
+        <v>69.459999999999994</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>142</v>
+      </c>
+      <c r="B144">
+        <v>3503.4481999999998</v>
+      </c>
+      <c r="C144" t="s">
+        <v>0</v>
+      </c>
+      <c r="D144">
+        <v>8505.1641</v>
+      </c>
+      <c r="E144" t="s">
+        <v>1</v>
+      </c>
+      <c r="F144">
+        <v>359.8</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+      <c r="H144">
+        <v>74.510000000000005</v>
+      </c>
+      <c r="I144">
+        <v>55.89</v>
+      </c>
+      <c r="J144">
+        <v>70.3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>3503.4481999999998</v>
+      </c>
+      <c r="C145" t="s">
+        <v>0</v>
+      </c>
+      <c r="D145">
+        <v>8505.1641</v>
+      </c>
+      <c r="E145" t="s">
+        <v>1</v>
+      </c>
+      <c r="F145">
+        <v>359.8</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+      <c r="H145">
+        <v>74.459999999999994</v>
+      </c>
+      <c r="I145">
+        <v>55.93</v>
+      </c>
+      <c r="J145">
+        <v>71.06</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>3503.4481999999998</v>
+      </c>
+      <c r="C146" t="s">
+        <v>0</v>
+      </c>
+      <c r="D146">
+        <v>8505.1641</v>
+      </c>
+      <c r="E146" t="s">
+        <v>1</v>
+      </c>
+      <c r="F146">
+        <v>359.8</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+      <c r="H146">
+        <v>74.5</v>
+      </c>
+      <c r="I146">
+        <v>55.87</v>
+      </c>
+      <c r="J146">
+        <v>71.77</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>3503.4481999999998</v>
+      </c>
+      <c r="C147" t="s">
+        <v>0</v>
+      </c>
+      <c r="D147">
+        <v>8505.1641</v>
+      </c>
+      <c r="E147" t="s">
+        <v>1</v>
+      </c>
+      <c r="F147">
+        <v>359.8</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+      <c r="H147">
+        <v>74.55</v>
+      </c>
+      <c r="I147">
+        <v>55.87</v>
+      </c>
+      <c r="J147">
+        <v>72.33</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>3503.4481999999998</v>
+      </c>
+      <c r="C148" t="s">
+        <v>0</v>
+      </c>
+      <c r="D148">
+        <v>8505.1641</v>
+      </c>
+      <c r="E148" t="s">
+        <v>1</v>
+      </c>
+      <c r="F148">
+        <v>359.8</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+      <c r="H148">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="I148">
+        <v>55.88</v>
+      </c>
+      <c r="J148">
+        <v>72.91</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>3503.4481999999998</v>
+      </c>
+      <c r="C149" t="s">
+        <v>0</v>
+      </c>
+      <c r="D149">
+        <v>8505.1641</v>
+      </c>
+      <c r="E149" t="s">
+        <v>1</v>
+      </c>
+      <c r="F149">
+        <v>359.8</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+      <c r="H149">
+        <v>74.47</v>
+      </c>
+      <c r="I149">
+        <v>55.93</v>
+      </c>
+      <c r="J149">
+        <v>73.540000000000006</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>3503.4481999999998</v>
+      </c>
+      <c r="C150" t="s">
+        <v>0</v>
+      </c>
+      <c r="D150">
+        <v>8505.1641</v>
+      </c>
+      <c r="E150" t="s">
+        <v>1</v>
+      </c>
+      <c r="F150">
+        <v>359.8</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+      <c r="H150">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="I150">
+        <v>55.97</v>
+      </c>
+      <c r="J150">
+        <v>74.08</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>3503.4481999999998</v>
+      </c>
+      <c r="C151" t="s">
+        <v>0</v>
+      </c>
+      <c r="D151">
+        <v>8505.1641</v>
+      </c>
+      <c r="E151" t="s">
+        <v>1</v>
+      </c>
+      <c r="F151">
+        <v>359.8</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151">
+        <v>74.47</v>
+      </c>
+      <c r="I151">
+        <v>55.96</v>
+      </c>
+      <c r="J151">
+        <v>74.41</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>3503.4481999999998</v>
+      </c>
+      <c r="C152" t="s">
+        <v>0</v>
+      </c>
+      <c r="D152">
+        <v>8505.1641</v>
+      </c>
+      <c r="E152" t="s">
+        <v>1</v>
+      </c>
+      <c r="F152">
+        <v>359.8</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+      <c r="H152">
+        <v>74.489999999999995</v>
+      </c>
+      <c r="I152">
+        <v>55.97</v>
+      </c>
+      <c r="J152">
+        <v>74.790000000000006</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>3503.4481999999998</v>
+      </c>
+      <c r="C153" t="s">
+        <v>0</v>
+      </c>
+      <c r="D153">
+        <v>8505.1641</v>
+      </c>
+      <c r="E153" t="s">
+        <v>1</v>
+      </c>
+      <c r="F153">
+        <v>359.8</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+      <c r="H153">
+        <v>74.44</v>
+      </c>
+      <c r="I153">
+        <v>55.97</v>
+      </c>
+      <c r="J153">
+        <v>75.17</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>3503.4481999999998</v>
+      </c>
+      <c r="C154" t="s">
+        <v>0</v>
+      </c>
+      <c r="D154">
+        <v>8505.1641</v>
+      </c>
+      <c r="E154" t="s">
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>359.8</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+      <c r="H154">
+        <v>74.52</v>
+      </c>
+      <c r="I154">
+        <v>55.93</v>
+      </c>
+      <c r="J154">
+        <v>75.39</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>3503.4479999999999</v>
+      </c>
+      <c r="C155" t="s">
+        <v>0</v>
+      </c>
+      <c r="D155">
+        <v>8505.1641</v>
+      </c>
+      <c r="E155" t="s">
+        <v>1</v>
+      </c>
+      <c r="F155">
+        <v>359.8</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+      <c r="H155">
+        <v>74.489999999999995</v>
+      </c>
+      <c r="I155">
+        <v>55.98</v>
+      </c>
+      <c r="J155">
+        <v>75.59</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>3503.4481999999998</v>
+      </c>
+      <c r="C156" t="s">
+        <v>0</v>
+      </c>
+      <c r="D156">
+        <v>8505.1641</v>
+      </c>
+      <c r="E156" t="s">
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <v>359.8</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+      <c r="H156">
+        <v>74.510000000000005</v>
+      </c>
+      <c r="I156">
+        <v>56.02</v>
+      </c>
+      <c r="J156">
+        <v>75.709999999999994</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>3503.4481999999998</v>
+      </c>
+      <c r="C157" t="s">
+        <v>0</v>
+      </c>
+      <c r="D157">
+        <v>8505.1641</v>
+      </c>
+      <c r="E157" t="s">
+        <v>1</v>
+      </c>
+      <c r="F157">
+        <v>359.8</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+      <c r="H157">
+        <v>74.56</v>
+      </c>
+      <c r="I157">
+        <v>55.97</v>
+      </c>
+      <c r="J157">
+        <v>75.790000000000006</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>3503.4479999999999</v>
+      </c>
+      <c r="C158" t="s">
+        <v>0</v>
+      </c>
+      <c r="D158">
+        <v>8505.1641</v>
+      </c>
+      <c r="E158" t="s">
+        <v>1</v>
+      </c>
+      <c r="F158">
+        <v>359.8</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
+      <c r="H158">
+        <v>74.55</v>
+      </c>
+      <c r="I158">
+        <v>55.98</v>
+      </c>
+      <c r="J158">
+        <v>75.900000000000006</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>3503.4479999999999</v>
+      </c>
+      <c r="C159" t="s">
+        <v>0</v>
+      </c>
+      <c r="D159">
+        <v>8505.1641</v>
+      </c>
+      <c r="E159" t="s">
+        <v>1</v>
+      </c>
+      <c r="F159">
+        <v>359.8</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+      <c r="H159">
+        <v>74.489999999999995</v>
+      </c>
+      <c r="I159">
+        <v>55.98</v>
+      </c>
+      <c r="J159">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>3503.4479999999999</v>
+      </c>
+      <c r="C160" t="s">
+        <v>0</v>
+      </c>
+      <c r="D160">
+        <v>8505.1641</v>
+      </c>
+      <c r="E160" t="s">
+        <v>1</v>
+      </c>
+      <c r="F160">
+        <v>359.8</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
+      <c r="H160">
+        <v>74.53</v>
+      </c>
+      <c r="I160">
+        <v>55.95</v>
+      </c>
+      <c r="J160">
+        <v>75.98</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>3503.4479999999999</v>
+      </c>
+      <c r="C161" t="s">
+        <v>0</v>
+      </c>
+      <c r="D161">
+        <v>8505.1641</v>
+      </c>
+      <c r="E161" t="s">
+        <v>1</v>
+      </c>
+      <c r="F161">
+        <v>359.8</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
+      <c r="H161">
+        <v>74.540000000000006</v>
+      </c>
+      <c r="I161">
+        <v>55.95</v>
+      </c>
+      <c r="J161">
+        <v>75.98</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>3503.4479999999999</v>
+      </c>
+      <c r="C162" t="s">
+        <v>0</v>
+      </c>
+      <c r="D162">
+        <v>8505.1641</v>
+      </c>
+      <c r="E162" t="s">
+        <v>1</v>
+      </c>
+      <c r="F162">
+        <v>359.8</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
+      <c r="H162">
+        <v>74.53</v>
+      </c>
+      <c r="I162">
+        <v>55.96</v>
+      </c>
+      <c r="J162">
+        <v>75.94</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>3503.4479999999999</v>
+      </c>
+      <c r="C163" t="s">
+        <v>0</v>
+      </c>
+      <c r="D163">
+        <v>8505.1641</v>
+      </c>
+      <c r="E163" t="s">
+        <v>1</v>
+      </c>
+      <c r="F163">
+        <v>359.8</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="H163">
+        <v>74.52</v>
+      </c>
+      <c r="I163">
+        <v>55.97</v>
+      </c>
+      <c r="J163">
+        <v>75.88</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>3503.4479999999999</v>
+      </c>
+      <c r="C164" t="s">
+        <v>0</v>
+      </c>
+      <c r="D164">
+        <v>8505.1641</v>
+      </c>
+      <c r="E164" t="s">
+        <v>1</v>
+      </c>
+      <c r="F164">
+        <v>359.8</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
+      <c r="H164">
+        <v>74.52</v>
+      </c>
+      <c r="I164">
+        <v>55.94</v>
+      </c>
+      <c r="J164">
+        <v>75.78</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>3503.4479999999999</v>
+      </c>
+      <c r="C165" t="s">
+        <v>0</v>
+      </c>
+      <c r="D165">
+        <v>8505.1641</v>
+      </c>
+      <c r="E165" t="s">
+        <v>1</v>
+      </c>
+      <c r="F165">
+        <v>359.8</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="H165">
+        <v>74.5</v>
+      </c>
+      <c r="I165">
+        <v>55.93</v>
+      </c>
+      <c r="J165">
+        <v>75.63</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>3503.4479999999999</v>
+      </c>
+      <c r="C166" t="s">
+        <v>0</v>
+      </c>
+      <c r="D166">
+        <v>8505.1641</v>
+      </c>
+      <c r="E166" t="s">
+        <v>1</v>
+      </c>
+      <c r="F166">
+        <v>359.8</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
+      <c r="H166">
+        <v>74.53</v>
+      </c>
+      <c r="I166">
+        <v>55.96</v>
+      </c>
+      <c r="J166">
+        <v>75.400000000000006</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>3503.4479999999999</v>
+      </c>
+      <c r="C167" t="s">
+        <v>0</v>
+      </c>
+      <c r="D167">
+        <v>8505.1641</v>
+      </c>
+      <c r="E167" t="s">
+        <v>1</v>
+      </c>
+      <c r="F167">
+        <v>359.8</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
+      <c r="H167">
+        <v>74.430000000000007</v>
+      </c>
+      <c r="I167">
+        <v>55.96</v>
+      </c>
+      <c r="J167">
+        <v>75.25</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>3503.4479999999999</v>
+      </c>
+      <c r="C168" t="s">
+        <v>0</v>
+      </c>
+      <c r="D168">
+        <v>8505.1641</v>
+      </c>
+      <c r="E168" t="s">
+        <v>1</v>
+      </c>
+      <c r="F168">
+        <v>359.8</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="H168">
+        <v>74.459999999999994</v>
+      </c>
+      <c r="I168">
+        <v>55.96</v>
+      </c>
+      <c r="J168">
+        <v>74.95</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>3503.4479999999999</v>
+      </c>
+      <c r="C169" t="s">
+        <v>0</v>
+      </c>
+      <c r="D169">
+        <v>8505.1641</v>
+      </c>
+      <c r="E169" t="s">
+        <v>1</v>
+      </c>
+      <c r="F169">
+        <v>359.8</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="H169">
+        <v>74.45</v>
+      </c>
+      <c r="I169">
+        <v>55.91</v>
+      </c>
+      <c r="J169">
+        <v>74.650000000000006</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>3503.4479999999999</v>
+      </c>
+      <c r="C170" t="s">
+        <v>0</v>
+      </c>
+      <c r="D170">
+        <v>8505.1641</v>
+      </c>
+      <c r="E170" t="s">
+        <v>1</v>
+      </c>
+      <c r="F170">
+        <v>359.8</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="H170">
+        <v>74.510000000000005</v>
+      </c>
+      <c r="I170">
+        <v>55.93</v>
+      </c>
+      <c r="J170">
+        <v>74.28</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>3503.4479999999999</v>
+      </c>
+      <c r="C171" t="s">
+        <v>0</v>
+      </c>
+      <c r="D171">
+        <v>8505.1641</v>
+      </c>
+      <c r="E171" t="s">
+        <v>1</v>
+      </c>
+      <c r="F171">
+        <v>359.8</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
+      <c r="H171">
+        <v>74.44</v>
+      </c>
+      <c r="I171">
+        <v>55.94</v>
+      </c>
+      <c r="J171">
+        <v>74.02</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>3503.4479999999999</v>
+      </c>
+      <c r="C172" t="s">
+        <v>0</v>
+      </c>
+      <c r="D172">
+        <v>8505.1641</v>
+      </c>
+      <c r="E172" t="s">
+        <v>1</v>
+      </c>
+      <c r="F172">
+        <v>359.8</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="H172">
+        <v>74.55</v>
+      </c>
+      <c r="I172">
+        <v>55.87</v>
+      </c>
+      <c r="J172">
+        <v>73.63</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>3503.4479999999999</v>
+      </c>
+      <c r="C173" t="s">
+        <v>0</v>
+      </c>
+      <c r="D173">
+        <v>8505.1641</v>
+      </c>
+      <c r="E173" t="s">
+        <v>1</v>
+      </c>
+      <c r="F173">
+        <v>359.8</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="H173">
+        <v>74.510000000000005</v>
+      </c>
+      <c r="I173">
+        <v>55.84</v>
+      </c>
+      <c r="J173">
+        <v>73.39</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>3503.4479999999999</v>
+      </c>
+      <c r="C174" t="s">
+        <v>0</v>
+      </c>
+      <c r="D174">
+        <v>8505.1641</v>
+      </c>
+      <c r="E174" t="s">
+        <v>1</v>
+      </c>
+      <c r="F174">
+        <v>359.8</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="H174">
+        <v>74.42</v>
+      </c>
+      <c r="I174">
+        <v>55.85</v>
+      </c>
+      <c r="J174">
+        <v>73.14</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>3503.4479999999999</v>
+      </c>
+      <c r="C175" t="s">
+        <v>0</v>
+      </c>
+      <c r="D175">
+        <v>8505.1641</v>
+      </c>
+      <c r="E175" t="s">
+        <v>1</v>
+      </c>
+      <c r="F175">
+        <v>359.8</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
+      <c r="H175">
+        <v>74.459999999999994</v>
+      </c>
+      <c r="I175">
+        <v>55.89</v>
+      </c>
+      <c r="J175">
+        <v>72.78</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>3503.4479999999999</v>
+      </c>
+      <c r="C176" t="s">
+        <v>0</v>
+      </c>
+      <c r="D176">
+        <v>8505.1641</v>
+      </c>
+      <c r="E176" t="s">
+        <v>1</v>
+      </c>
+      <c r="F176">
+        <v>359.8</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
+      <c r="H176">
+        <v>74.53</v>
+      </c>
+      <c r="I176">
+        <v>55.82</v>
+      </c>
+      <c r="J176">
+        <v>72.37</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>3503.4479999999999</v>
+      </c>
+      <c r="C177" t="s">
+        <v>0</v>
+      </c>
+      <c r="D177">
+        <v>8505.1641</v>
+      </c>
+      <c r="E177" t="s">
+        <v>1</v>
+      </c>
+      <c r="F177">
+        <v>359.8</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="H177">
+        <v>74.55</v>
+      </c>
+      <c r="I177">
+        <v>55.82</v>
+      </c>
+      <c r="J177">
+        <v>71.959999999999994</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>3503.4479999999999</v>
+      </c>
+      <c r="C178" t="s">
+        <v>0</v>
+      </c>
+      <c r="D178">
+        <v>8505.1641</v>
+      </c>
+      <c r="E178" t="s">
+        <v>1</v>
+      </c>
+      <c r="F178">
+        <v>359.8</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="H178">
+        <v>74.55</v>
+      </c>
+      <c r="I178">
+        <v>55.8</v>
+      </c>
+      <c r="J178">
+        <v>71.61</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>177</v>
+      </c>
+      <c r="B179">
+        <v>3503.4479999999999</v>
+      </c>
+      <c r="C179" t="s">
+        <v>0</v>
+      </c>
+      <c r="D179">
+        <v>8505.1641</v>
+      </c>
+      <c r="E179" t="s">
+        <v>1</v>
+      </c>
+      <c r="F179">
+        <v>359.8</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
+      <c r="H179">
+        <v>74.58</v>
+      </c>
+      <c r="I179">
+        <v>55.74</v>
+      </c>
+      <c r="J179">
+        <v>71.3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>178</v>
+      </c>
+      <c r="B180">
+        <v>3503.4479999999999</v>
+      </c>
+      <c r="C180" t="s">
+        <v>0</v>
+      </c>
+      <c r="D180">
+        <v>8505.1641</v>
+      </c>
+      <c r="E180" t="s">
+        <v>1</v>
+      </c>
+      <c r="F180">
+        <v>359.8</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>74.489999999999995</v>
+      </c>
+      <c r="I180">
+        <v>55.72</v>
+      </c>
+      <c r="J180">
+        <v>71.010000000000005</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>179</v>
+      </c>
+      <c r="B181">
+        <v>3503.4479999999999</v>
+      </c>
+      <c r="C181" t="s">
+        <v>0</v>
+      </c>
+      <c r="D181">
+        <v>8505.1641</v>
+      </c>
+      <c r="E181" t="s">
+        <v>1</v>
+      </c>
+      <c r="F181">
+        <v>359.8</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>74.44</v>
+      </c>
+      <c r="I181">
+        <v>55.76</v>
+      </c>
+      <c r="J181">
+        <v>70.69</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>180</v>
+      </c>
+      <c r="B182">
+        <v>3503.4479999999999</v>
+      </c>
+      <c r="C182" t="s">
+        <v>0</v>
+      </c>
+      <c r="D182">
+        <v>8505.1641</v>
+      </c>
+      <c r="E182" t="s">
+        <v>1</v>
+      </c>
+      <c r="F182">
+        <v>359.8</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="I182">
+        <v>55.75</v>
+      </c>
+      <c r="J182">
+        <v>70.37</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>181</v>
+      </c>
+      <c r="B183">
+        <v>3503.4479999999999</v>
+      </c>
+      <c r="C183" t="s">
+        <v>0</v>
+      </c>
+      <c r="D183">
+        <v>8505.1641</v>
+      </c>
+      <c r="E183" t="s">
+        <v>1</v>
+      </c>
+      <c r="F183">
+        <v>359.8</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
+      <c r="H183">
+        <v>74.38</v>
+      </c>
+      <c r="I183">
+        <v>55.76</v>
+      </c>
+      <c r="J183">
+        <v>70.03</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>182</v>
+      </c>
+      <c r="B184">
+        <v>3503.4479999999999</v>
+      </c>
+      <c r="C184" t="s">
+        <v>0</v>
+      </c>
+      <c r="D184">
+        <v>8505.1641</v>
+      </c>
+      <c r="E184" t="s">
+        <v>1</v>
+      </c>
+      <c r="F184">
+        <v>359.8</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
+      <c r="H184">
+        <v>74.41</v>
+      </c>
+      <c r="I184">
+        <v>55.76</v>
+      </c>
+      <c r="J184">
+        <v>69.58</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>183</v>
+      </c>
+      <c r="B185">
+        <v>3503.4479999999999</v>
+      </c>
+      <c r="C185" t="s">
+        <v>0</v>
+      </c>
+      <c r="D185">
+        <v>8505.1641</v>
+      </c>
+      <c r="E185" t="s">
+        <v>1</v>
+      </c>
+      <c r="F185">
+        <v>359.8</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <v>74.45</v>
+      </c>
+      <c r="I185">
+        <v>55.74</v>
+      </c>
+      <c r="J185">
+        <v>69.069999999999993</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>184</v>
+      </c>
+      <c r="B186">
+        <v>3503.4479999999999</v>
+      </c>
+      <c r="C186" t="s">
+        <v>0</v>
+      </c>
+      <c r="D186">
+        <v>8505.1641</v>
+      </c>
+      <c r="E186" t="s">
+        <v>1</v>
+      </c>
+      <c r="F186">
+        <v>359.8</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <v>74.47</v>
+      </c>
+      <c r="I186">
+        <v>55.72</v>
+      </c>
+      <c r="J186">
+        <v>68.61</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>185</v>
+      </c>
+      <c r="B187">
+        <v>3503.4479999999999</v>
+      </c>
+      <c r="C187" t="s">
+        <v>0</v>
+      </c>
+      <c r="D187">
+        <v>8505.1641</v>
+      </c>
+      <c r="E187" t="s">
+        <v>1</v>
+      </c>
+      <c r="F187">
+        <v>359.8</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>74.45</v>
+      </c>
+      <c r="I187">
+        <v>55.69</v>
+      </c>
+      <c r="J187">
+        <v>68.27</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>186</v>
+      </c>
+      <c r="B188">
+        <v>3503.4479999999999</v>
+      </c>
+      <c r="C188" t="s">
+        <v>0</v>
+      </c>
+      <c r="D188">
+        <v>8505.1641</v>
+      </c>
+      <c r="E188" t="s">
+        <v>1</v>
+      </c>
+      <c r="F188">
+        <v>359.8</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
+      <c r="H188">
+        <v>74.45</v>
+      </c>
+      <c r="I188">
+        <v>55.7</v>
+      </c>
+      <c r="J188">
+        <v>67.819999999999993</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>187</v>
+      </c>
+      <c r="B189">
+        <v>3503.4479999999999</v>
+      </c>
+      <c r="C189" t="s">
+        <v>0</v>
+      </c>
+      <c r="D189">
+        <v>8505.1641</v>
+      </c>
+      <c r="E189" t="s">
+        <v>1</v>
+      </c>
+      <c r="F189">
+        <v>359.7</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
+      <c r="H189">
+        <v>74.430000000000007</v>
+      </c>
+      <c r="I189">
+        <v>55.69</v>
+      </c>
+      <c r="J189">
+        <v>67.37</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>188</v>
+      </c>
+      <c r="B190">
+        <v>3503.4479999999999</v>
+      </c>
+      <c r="C190" t="s">
+        <v>0</v>
+      </c>
+      <c r="D190">
+        <v>8505.1641</v>
+      </c>
+      <c r="E190" t="s">
+        <v>1</v>
+      </c>
+      <c r="F190">
+        <v>359.7</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
+      <c r="H190">
+        <v>74.41</v>
+      </c>
+      <c r="I190">
+        <v>55.71</v>
+      </c>
+      <c r="J190">
+        <v>66.89</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>189</v>
+      </c>
+      <c r="B191">
+        <v>3503.4479999999999</v>
+      </c>
+      <c r="C191" t="s">
+        <v>0</v>
+      </c>
+      <c r="D191">
+        <v>8505.1641</v>
+      </c>
+      <c r="E191" t="s">
+        <v>1</v>
+      </c>
+      <c r="F191">
+        <v>359.7</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+      <c r="H191">
+        <v>74.349999999999994</v>
+      </c>
+      <c r="I191">
+        <v>55.63</v>
+      </c>
+      <c r="J191">
+        <v>66.61</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>190</v>
+      </c>
+      <c r="B192">
+        <v>3503.4479999999999</v>
+      </c>
+      <c r="C192" t="s">
+        <v>0</v>
+      </c>
+      <c r="D192">
+        <v>8505.1641</v>
+      </c>
+      <c r="E192" t="s">
+        <v>1</v>
+      </c>
+      <c r="F192">
+        <v>359.7</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="H192">
+        <v>74.36</v>
+      </c>
+      <c r="I192">
+        <v>55.65</v>
+      </c>
+      <c r="J192">
+        <v>66.22</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>191</v>
+      </c>
+      <c r="B193">
+        <v>3503.4479999999999</v>
+      </c>
+      <c r="C193" t="s">
+        <v>0</v>
+      </c>
+      <c r="D193">
+        <v>8505.1641</v>
+      </c>
+      <c r="E193" t="s">
+        <v>1</v>
+      </c>
+      <c r="F193">
+        <v>359.7</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
+      <c r="H193">
+        <v>74.44</v>
+      </c>
+      <c r="I193">
+        <v>55.59</v>
+      </c>
+      <c r="J193">
+        <v>65.790000000000006</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>192</v>
+      </c>
+      <c r="B194">
+        <v>3503.4479999999999</v>
+      </c>
+      <c r="C194" t="s">
+        <v>0</v>
+      </c>
+      <c r="D194">
+        <v>8505.1641</v>
+      </c>
+      <c r="E194" t="s">
+        <v>1</v>
+      </c>
+      <c r="F194">
+        <v>359.7</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+      <c r="H194">
+        <v>74.34</v>
+      </c>
+      <c r="I194">
+        <v>55.68</v>
+      </c>
+      <c r="J194">
+        <v>65.430000000000007</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>193</v>
+      </c>
+      <c r="B195">
+        <v>3503.4479999999999</v>
+      </c>
+      <c r="C195" t="s">
+        <v>0</v>
+      </c>
+      <c r="D195">
+        <v>8505.1641</v>
+      </c>
+      <c r="E195" t="s">
+        <v>1</v>
+      </c>
+      <c r="F195">
+        <v>359.7</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
+      <c r="H195">
+        <v>74.33</v>
+      </c>
+      <c r="I195">
+        <v>55.7</v>
+      </c>
+      <c r="J195">
+        <v>65.040000000000006</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>194</v>
+      </c>
+      <c r="B196">
+        <v>3503.4479999999999</v>
+      </c>
+      <c r="C196" t="s">
+        <v>0</v>
+      </c>
+      <c r="D196">
+        <v>8505.1641</v>
+      </c>
+      <c r="E196" t="s">
+        <v>1</v>
+      </c>
+      <c r="F196">
+        <v>359.7</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
+      <c r="H196">
+        <v>74.34</v>
+      </c>
+      <c r="I196">
+        <v>55.67</v>
+      </c>
+      <c r="J196">
+        <v>64.52</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>195</v>
+      </c>
+      <c r="B197">
+        <v>3503.4479999999999</v>
+      </c>
+      <c r="C197" t="s">
+        <v>0</v>
+      </c>
+      <c r="D197">
+        <v>8505.1641</v>
+      </c>
+      <c r="E197" t="s">
+        <v>1</v>
+      </c>
+      <c r="F197">
+        <v>359.7</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
+      <c r="H197">
+        <v>74.31</v>
+      </c>
+      <c r="I197">
+        <v>55.64</v>
+      </c>
+      <c r="J197">
+        <v>64.06</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>196</v>
+      </c>
+      <c r="B198">
+        <v>3503.4479999999999</v>
+      </c>
+      <c r="C198" t="s">
+        <v>0</v>
+      </c>
+      <c r="D198">
+        <v>8505.1641</v>
+      </c>
+      <c r="E198" t="s">
+        <v>1</v>
+      </c>
+      <c r="F198">
+        <v>359.7</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
+      <c r="H198">
+        <v>74.34</v>
+      </c>
+      <c r="I198">
+        <v>55.6</v>
+      </c>
+      <c r="J198">
+        <v>63.58</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>197</v>
+      </c>
+      <c r="B199">
+        <v>3503.4479999999999</v>
+      </c>
+      <c r="C199" t="s">
+        <v>0</v>
+      </c>
+      <c r="D199">
+        <v>8505.1641</v>
+      </c>
+      <c r="E199" t="s">
+        <v>1</v>
+      </c>
+      <c r="F199">
+        <v>359.7</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
+      <c r="H199">
+        <v>74.3</v>
+      </c>
+      <c r="I199">
+        <v>55.63</v>
+      </c>
+      <c r="J199">
+        <v>63.19</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>198</v>
+      </c>
+      <c r="B200">
+        <v>3503.4479999999999</v>
+      </c>
+      <c r="C200" t="s">
+        <v>0</v>
+      </c>
+      <c r="D200">
+        <v>8505.1641</v>
+      </c>
+      <c r="E200" t="s">
+        <v>1</v>
+      </c>
+      <c r="F200">
+        <v>359.7</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
+      <c r="H200">
+        <v>74.36</v>
+      </c>
+      <c r="I200">
+        <v>55.59</v>
+      </c>
+      <c r="J200">
+        <v>62.69</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>199</v>
+      </c>
+      <c r="B201">
+        <v>3503.4479999999999</v>
+      </c>
+      <c r="C201" t="s">
+        <v>0</v>
+      </c>
+      <c r="D201">
+        <v>8505.1641</v>
+      </c>
+      <c r="E201" t="s">
+        <v>1</v>
+      </c>
+      <c r="F201">
+        <v>359.7</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
+      <c r="H201">
+        <v>74.25</v>
+      </c>
+      <c r="I201">
+        <v>55.6</v>
+      </c>
+      <c r="J201">
+        <v>62.29</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>200</v>
+      </c>
+      <c r="B202">
+        <v>3503.4479999999999</v>
+      </c>
+      <c r="C202" t="s">
+        <v>0</v>
+      </c>
+      <c r="D202">
+        <v>8505.1641</v>
+      </c>
+      <c r="E202" t="s">
+        <v>1</v>
+      </c>
+      <c r="F202">
+        <v>359.7</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
+      <c r="H202">
+        <v>74.33</v>
+      </c>
+      <c r="I202">
+        <v>55.55</v>
+      </c>
+      <c r="J202">
+        <v>61.81</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>201</v>
+      </c>
+      <c r="B203">
+        <v>3503.4479999999999</v>
+      </c>
+      <c r="C203" t="s">
+        <v>0</v>
+      </c>
+      <c r="D203">
+        <v>8505.1641</v>
+      </c>
+      <c r="E203" t="s">
+        <v>1</v>
+      </c>
+      <c r="F203">
+        <v>359.7</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+      <c r="H203">
+        <v>74.36</v>
+      </c>
+      <c r="I203">
+        <v>55.55</v>
+      </c>
+      <c r="J203">
+        <v>61.39</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>202</v>
+      </c>
+      <c r="B204">
+        <v>3503.4479999999999</v>
+      </c>
+      <c r="C204" t="s">
+        <v>0</v>
+      </c>
+      <c r="D204">
+        <v>8505.1641</v>
+      </c>
+      <c r="E204" t="s">
+        <v>1</v>
+      </c>
+      <c r="F204">
+        <v>359.7</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+      <c r="H204">
+        <v>74.25</v>
+      </c>
+      <c r="I204">
+        <v>55.57</v>
+      </c>
+      <c r="J204">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>203</v>
+      </c>
+      <c r="B205">
+        <v>3503.4479999999999</v>
+      </c>
+      <c r="C205" t="s">
+        <v>0</v>
+      </c>
+      <c r="D205">
+        <v>8505.1641</v>
+      </c>
+      <c r="E205" t="s">
+        <v>1</v>
+      </c>
+      <c r="F205">
+        <v>359.7</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
+      <c r="H205">
+        <v>74.34</v>
+      </c>
+      <c r="I205">
+        <v>55.56</v>
+      </c>
+      <c r="J205">
+        <v>60.46</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>204</v>
+      </c>
+      <c r="B206">
+        <v>3503.4479999999999</v>
+      </c>
+      <c r="C206" t="s">
+        <v>0</v>
+      </c>
+      <c r="D206">
+        <v>8505.1641</v>
+      </c>
+      <c r="E206" t="s">
+        <v>1</v>
+      </c>
+      <c r="F206">
+        <v>359.7</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
+      <c r="H206">
+        <v>74.290000000000006</v>
+      </c>
+      <c r="I206">
+        <v>55.57</v>
+      </c>
+      <c r="J206">
+        <v>60.05</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>205</v>
+      </c>
+      <c r="B207">
+        <v>3503.4479999999999</v>
+      </c>
+      <c r="C207" t="s">
+        <v>0</v>
+      </c>
+      <c r="D207">
+        <v>8505.1641</v>
+      </c>
+      <c r="E207" t="s">
+        <v>1</v>
+      </c>
+      <c r="F207">
+        <v>359.7</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
+      <c r="H207">
+        <v>74.27</v>
+      </c>
+      <c r="I207">
+        <v>55.53</v>
+      </c>
+      <c r="J207">
+        <v>59.68</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>206</v>
+      </c>
+      <c r="B208">
+        <v>3503.4479999999999</v>
+      </c>
+      <c r="C208" t="s">
+        <v>0</v>
+      </c>
+      <c r="D208">
+        <v>8505.1641</v>
+      </c>
+      <c r="E208" t="s">
+        <v>1</v>
+      </c>
+      <c r="F208">
+        <v>359.7</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
+      <c r="H208">
+        <v>74.260000000000005</v>
+      </c>
+      <c r="I208">
+        <v>55.49</v>
+      </c>
+      <c r="J208">
+        <v>59.31</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>207</v>
+      </c>
+      <c r="B209">
+        <v>3503.4477999999999</v>
+      </c>
+      <c r="C209" t="s">
+        <v>0</v>
+      </c>
+      <c r="D209">
+        <v>8505.1641</v>
+      </c>
+      <c r="E209" t="s">
+        <v>1</v>
+      </c>
+      <c r="F209">
+        <v>359.7</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+      <c r="H209">
+        <v>74.209999999999994</v>
+      </c>
+      <c r="I209">
+        <v>55.5</v>
+      </c>
+      <c r="J209">
+        <v>58.99</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>208</v>
+      </c>
+      <c r="B210">
+        <v>3503.4477999999999</v>
+      </c>
+      <c r="C210" t="s">
+        <v>0</v>
+      </c>
+      <c r="D210">
+        <v>8505.1641</v>
+      </c>
+      <c r="E210" t="s">
+        <v>1</v>
+      </c>
+      <c r="F210">
+        <v>359.7</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
+      <c r="H210">
+        <v>74.13</v>
+      </c>
+      <c r="I210">
+        <v>55.51</v>
+      </c>
+      <c r="J210">
+        <v>58.68</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>209</v>
+      </c>
+      <c r="B211">
+        <v>3503.4477999999999</v>
+      </c>
+      <c r="C211" t="s">
+        <v>0</v>
+      </c>
+      <c r="D211">
+        <v>8505.1641</v>
+      </c>
+      <c r="E211" t="s">
+        <v>1</v>
+      </c>
+      <c r="F211">
+        <v>359.7</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
+      <c r="H211">
+        <v>74.13</v>
+      </c>
+      <c r="I211">
+        <v>55.5</v>
+      </c>
+      <c r="J211">
+        <v>58.4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>210</v>
+      </c>
+      <c r="B212">
+        <v>3503.4477999999999</v>
+      </c>
+      <c r="C212" t="s">
+        <v>0</v>
+      </c>
+      <c r="D212">
+        <v>8505.1641</v>
+      </c>
+      <c r="E212" t="s">
+        <v>1</v>
+      </c>
+      <c r="F212">
+        <v>359.7</v>
+      </c>
+      <c r="G212">
+        <v>0</v>
+      </c>
+      <c r="H212">
+        <v>74.209999999999994</v>
+      </c>
+      <c r="I212">
+        <v>55.48</v>
+      </c>
+      <c r="J212">
+        <v>58.01</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>211</v>
+      </c>
+      <c r="B213">
+        <v>3503.4477999999999</v>
+      </c>
+      <c r="C213" t="s">
+        <v>0</v>
+      </c>
+      <c r="D213">
+        <v>8505.1641</v>
+      </c>
+      <c r="E213" t="s">
+        <v>1</v>
+      </c>
+      <c r="F213">
+        <v>359.7</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+      <c r="H213">
+        <v>74.23</v>
+      </c>
+      <c r="I213">
+        <v>55.46</v>
+      </c>
+      <c r="J213">
+        <v>57.69</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>212</v>
+      </c>
+      <c r="B214">
+        <v>3503.4477999999999</v>
+      </c>
+      <c r="C214" t="s">
+        <v>0</v>
+      </c>
+      <c r="D214">
+        <v>8505.1641</v>
+      </c>
+      <c r="E214" t="s">
+        <v>1</v>
+      </c>
+      <c r="F214">
+        <v>359.7</v>
+      </c>
+      <c r="G214">
+        <v>0</v>
+      </c>
+      <c r="H214">
+        <v>74.180000000000007</v>
+      </c>
+      <c r="I214">
+        <v>55.49</v>
+      </c>
+      <c r="J214">
+        <v>57.39</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>213</v>
+      </c>
+      <c r="B215">
+        <v>3503.4477999999999</v>
+      </c>
+      <c r="C215" t="s">
+        <v>0</v>
+      </c>
+      <c r="D215">
+        <v>8505.1630999999998</v>
+      </c>
+      <c r="E215" t="s">
+        <v>1</v>
+      </c>
+      <c r="F215">
+        <v>359.7</v>
+      </c>
+      <c r="G215">
+        <v>0</v>
+      </c>
+      <c r="H215">
+        <v>74.19</v>
+      </c>
+      <c r="I215">
+        <v>55.48</v>
+      </c>
+      <c r="J215">
+        <v>57.11</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>214</v>
+      </c>
+      <c r="B216">
+        <v>3503.4477999999999</v>
+      </c>
+      <c r="C216" t="s">
+        <v>0</v>
+      </c>
+      <c r="D216">
+        <v>8505.1630999999998</v>
+      </c>
+      <c r="E216" t="s">
+        <v>1</v>
+      </c>
+      <c r="F216">
+        <v>359.7</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
+      </c>
+      <c r="H216">
+        <v>74.150000000000006</v>
+      </c>
+      <c r="I216">
+        <v>55.5</v>
+      </c>
+      <c r="J216">
+        <v>56.83</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>215</v>
+      </c>
+      <c r="B217">
+        <v>3503.4477999999999</v>
+      </c>
+      <c r="C217" t="s">
+        <v>0</v>
+      </c>
+      <c r="D217">
+        <v>8505.1630999999998</v>
+      </c>
+      <c r="E217" t="s">
+        <v>1</v>
+      </c>
+      <c r="F217">
+        <v>359.7</v>
+      </c>
+      <c r="G217">
+        <v>0</v>
+      </c>
+      <c r="H217">
+        <v>74.16</v>
+      </c>
+      <c r="I217">
+        <v>55.51</v>
+      </c>
+      <c r="J217">
+        <v>56.49</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>216</v>
+      </c>
+      <c r="B218">
+        <v>3503.4477999999999</v>
+      </c>
+      <c r="C218" t="s">
+        <v>0</v>
+      </c>
+      <c r="D218">
+        <v>8505.1630999999998</v>
+      </c>
+      <c r="E218" t="s">
+        <v>1</v>
+      </c>
+      <c r="F218">
+        <v>359.7</v>
+      </c>
+      <c r="G218">
+        <v>0</v>
+      </c>
+      <c r="H218">
+        <v>74.13</v>
+      </c>
+      <c r="I218">
+        <v>55.5</v>
+      </c>
+      <c r="J218">
+        <v>56.16</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>217</v>
+      </c>
+      <c r="B219">
+        <v>3503.4477999999999</v>
+      </c>
+      <c r="C219" t="s">
+        <v>0</v>
+      </c>
+      <c r="D219">
+        <v>8505.1630999999998</v>
+      </c>
+      <c r="E219" t="s">
+        <v>1</v>
+      </c>
+      <c r="F219">
+        <v>359.7</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
+      <c r="H219">
+        <v>74.09</v>
+      </c>
+      <c r="I219">
+        <v>55.5</v>
+      </c>
+      <c r="J219">
+        <v>55.88</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>218</v>
+      </c>
+      <c r="B220">
+        <v>3503.4477999999999</v>
+      </c>
+      <c r="C220" t="s">
+        <v>0</v>
+      </c>
+      <c r="D220">
+        <v>8505.1630999999998</v>
+      </c>
+      <c r="E220" t="s">
+        <v>1</v>
+      </c>
+      <c r="F220">
+        <v>359.7</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
+      <c r="H220">
+        <v>74.02</v>
+      </c>
+      <c r="I220">
+        <v>55.46</v>
+      </c>
+      <c r="J220">
+        <v>55.67</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>219</v>
+      </c>
+      <c r="B221">
+        <v>3503.4477999999999</v>
+      </c>
+      <c r="C221" t="s">
+        <v>0</v>
+      </c>
+      <c r="D221">
+        <v>8505.1630999999998</v>
+      </c>
+      <c r="E221" t="s">
+        <v>1</v>
+      </c>
+      <c r="F221">
+        <v>359.7</v>
+      </c>
+      <c r="G221">
+        <v>0</v>
+      </c>
+      <c r="H221">
+        <v>74.13</v>
+      </c>
+      <c r="I221">
+        <v>55.44</v>
+      </c>
+      <c r="J221">
+        <v>55.36</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>220</v>
+      </c>
+      <c r="B222">
+        <v>3503.4477999999999</v>
+      </c>
+      <c r="C222" t="s">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>8505.1630999999998</v>
+      </c>
+      <c r="E222" t="s">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>359.7</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>74.08</v>
+      </c>
+      <c r="I222">
+        <v>55.48</v>
+      </c>
+      <c r="J222">
+        <v>55.11</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>221</v>
+      </c>
+      <c r="B223">
+        <v>3503.4477999999999</v>
+      </c>
+      <c r="C223" t="s">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>8505.1630999999998</v>
+      </c>
+      <c r="E223" t="s">
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>359.7</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>74.040000000000006</v>
+      </c>
+      <c r="I223">
+        <v>55.43</v>
+      </c>
+      <c r="J223">
+        <v>55.01</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>222</v>
+      </c>
+      <c r="B224">
+        <v>3503.4477999999999</v>
+      </c>
+      <c r="C224" t="s">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>8505.1630999999998</v>
+      </c>
+      <c r="E224" t="s">
+        <v>1</v>
+      </c>
+      <c r="F224">
+        <v>359.7</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>74.040000000000006</v>
+      </c>
+      <c r="I224">
+        <v>55.41</v>
+      </c>
+      <c r="J224">
+        <v>54.86</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>223</v>
+      </c>
+      <c r="B225">
+        <v>3503.4477999999999</v>
+      </c>
+      <c r="C225" t="s">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>8505.1630999999998</v>
+      </c>
+      <c r="E225" t="s">
+        <v>1</v>
+      </c>
+      <c r="F225">
+        <v>359.7</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>74.05</v>
+      </c>
+      <c r="I225">
+        <v>55.43</v>
+      </c>
+      <c r="J225">
+        <v>54.66</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>224</v>
+      </c>
+      <c r="B226">
+        <v>3503.4477999999999</v>
+      </c>
+      <c r="C226" t="s">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>8505.1630999999998</v>
+      </c>
+      <c r="E226" t="s">
+        <v>1</v>
+      </c>
+      <c r="F226">
+        <v>359.7</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>74.06</v>
+      </c>
+      <c r="I226">
+        <v>55.42</v>
+      </c>
+      <c r="J226">
+        <v>54.45</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>225</v>
+      </c>
+      <c r="B227">
+        <v>3503.4477999999999</v>
+      </c>
+      <c r="C227" t="s">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>8505.1630999999998</v>
+      </c>
+      <c r="E227" t="s">
+        <v>1</v>
+      </c>
+      <c r="F227">
+        <v>359.7</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>74.06</v>
+      </c>
+      <c r="I227">
+        <v>55.37</v>
+      </c>
+      <c r="J227">
+        <v>54.36</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>226</v>
+      </c>
+      <c r="B228">
+        <v>3503.4477999999999</v>
+      </c>
+      <c r="C228" t="s">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>8505.1630999999998</v>
+      </c>
+      <c r="E228" t="s">
+        <v>1</v>
+      </c>
+      <c r="F228">
+        <v>359.7</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>74.06</v>
+      </c>
+      <c r="I228">
+        <v>55.41</v>
+      </c>
+      <c r="J228">
+        <v>54.21</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>227</v>
+      </c>
+      <c r="B229">
+        <v>3503.4477999999999</v>
+      </c>
+      <c r="C229" t="s">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>8505.1630999999998</v>
+      </c>
+      <c r="E229" t="s">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>359.7</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="I229">
+        <v>55.41</v>
+      </c>
+      <c r="J229">
+        <v>54.02</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>228</v>
+      </c>
+      <c r="B230">
+        <v>3503.4477999999999</v>
+      </c>
+      <c r="C230" t="s">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>8505.1630999999998</v>
+      </c>
+      <c r="E230" t="s">
+        <v>1</v>
+      </c>
+      <c r="F230">
+        <v>359.7</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>74.069999999999993</v>
+      </c>
+      <c r="I230">
+        <v>55.35</v>
+      </c>
+      <c r="J230">
+        <v>53.96</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>229</v>
+      </c>
+      <c r="B231">
+        <v>3503.4477999999999</v>
+      </c>
+      <c r="C231" t="s">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>8505.1630999999998</v>
+      </c>
+      <c r="E231" t="s">
+        <v>1</v>
+      </c>
+      <c r="F231">
+        <v>359.7</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>74.05</v>
+      </c>
+      <c r="I231">
+        <v>55.41</v>
+      </c>
+      <c r="J231">
+        <v>53.86</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>230</v>
+      </c>
+      <c r="B232">
+        <v>3503.4477999999999</v>
+      </c>
+      <c r="C232" t="s">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>8505.1630999999998</v>
+      </c>
+      <c r="E232" t="s">
+        <v>1</v>
+      </c>
+      <c r="F232">
+        <v>359.7</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>73.72</v>
+      </c>
+      <c r="I232">
+        <v>55.8</v>
+      </c>
+      <c r="J232">
+        <v>54.02</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>231</v>
+      </c>
+      <c r="B233">
+        <v>3503.4477999999999</v>
+      </c>
+      <c r="C233" t="s">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>8505.1630999999998</v>
+      </c>
+      <c r="E233" t="s">
+        <v>1</v>
+      </c>
+      <c r="F233">
+        <v>359.7</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>53.24</v>
+      </c>
+      <c r="I233">
+        <v>58.54</v>
+      </c>
+      <c r="J233">
+        <v>60.36</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>232</v>
+      </c>
+      <c r="B234">
+        <v>3503.4477999999999</v>
+      </c>
+      <c r="C234" t="s">
+        <v>0</v>
+      </c>
+      <c r="D234">
+        <v>8505.1630999999998</v>
+      </c>
+      <c r="E234" t="s">
+        <v>1</v>
+      </c>
+      <c r="F234">
+        <v>359.7</v>
+      </c>
+      <c r="G234">
+        <v>0</v>
+      </c>
+      <c r="H234">
+        <v>26.73</v>
+      </c>
+      <c r="I234">
+        <v>57.14</v>
+      </c>
+      <c r="J234">
+        <v>124.63</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>233</v>
+      </c>
+      <c r="B235">
+        <v>3503.4477999999999</v>
+      </c>
+      <c r="C235" t="s">
+        <v>0</v>
+      </c>
+      <c r="D235">
+        <v>8505.1630999999998</v>
+      </c>
+      <c r="E235" t="s">
+        <v>1</v>
+      </c>
+      <c r="F235">
+        <v>359.7</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
+      <c r="H235">
+        <v>26.7</v>
+      </c>
+      <c r="I235">
+        <v>30.49</v>
+      </c>
+      <c r="J235">
+        <v>95.28</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>234</v>
+      </c>
+      <c r="B236">
+        <v>3503.4477999999999</v>
+      </c>
+      <c r="C236" t="s">
+        <v>0</v>
+      </c>
+      <c r="D236">
+        <v>8505.1620999999996</v>
+      </c>
+      <c r="E236" t="s">
+        <v>1</v>
+      </c>
+      <c r="F236">
+        <v>359.7</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
+      <c r="H236">
+        <v>46.54</v>
+      </c>
+      <c r="I236">
+        <v>11.32</v>
+      </c>
+      <c r="J236">
+        <v>81.88</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>235</v>
+      </c>
+      <c r="B237">
+        <v>3503.4479999999999</v>
+      </c>
+      <c r="C237" t="s">
+        <v>0</v>
+      </c>
+      <c r="D237">
+        <v>8505.1630999999998</v>
+      </c>
+      <c r="E237" t="s">
+        <v>1</v>
+      </c>
+      <c r="F237">
+        <v>359.7</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
+      <c r="H237">
+        <v>35.6</v>
+      </c>
+      <c r="I237">
+        <v>44.3</v>
+      </c>
+      <c r="J237">
+        <v>82.66</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>236</v>
+      </c>
+      <c r="B238">
+        <v>3503.4479999999999</v>
+      </c>
+      <c r="C238" t="s">
+        <v>0</v>
+      </c>
+      <c r="D238">
+        <v>8505.1641</v>
+      </c>
+      <c r="E238" t="s">
+        <v>1</v>
+      </c>
+      <c r="F238">
+        <v>360.6</v>
+      </c>
+      <c r="G238">
+        <v>0</v>
+      </c>
+      <c r="H238">
+        <v>45.85</v>
+      </c>
+      <c r="I238">
+        <v>50.16</v>
+      </c>
+      <c r="J238">
+        <v>91.81</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>237</v>
+      </c>
+      <c r="B239">
+        <v>3503.4479999999999</v>
+      </c>
+      <c r="C239" t="s">
+        <v>0</v>
+      </c>
+      <c r="D239">
+        <v>8505.1641</v>
+      </c>
+      <c r="E239" t="s">
+        <v>1</v>
+      </c>
+      <c r="F239">
+        <v>360.6</v>
+      </c>
+      <c r="G239">
+        <v>0</v>
+      </c>
+      <c r="H239">
+        <v>60.18</v>
+      </c>
+      <c r="I239">
+        <v>35.76</v>
+      </c>
+      <c r="J239">
+        <v>106.96</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>238</v>
+      </c>
+      <c r="B240">
+        <v>3503.4475000000002</v>
+      </c>
+      <c r="C240" t="s">
+        <v>0</v>
+      </c>
+      <c r="D240">
+        <v>8505.1689000000006</v>
+      </c>
+      <c r="E240" t="s">
+        <v>1</v>
+      </c>
+      <c r="F240">
+        <v>360.6</v>
+      </c>
+      <c r="G240">
+        <v>0</v>
+      </c>
+      <c r="H240">
+        <v>44.58</v>
+      </c>
+      <c r="I240">
+        <v>30.55</v>
+      </c>
+      <c r="J240">
+        <v>104.05</v>
+      </c>
+    </row>
+    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>239</v>
+      </c>
+      <c r="B241">
+        <v>3503.4468000000002</v>
+      </c>
+      <c r="C241" t="s">
+        <v>0</v>
+      </c>
+      <c r="D241">
+        <v>8505.1708999999992</v>
+      </c>
+      <c r="E241" t="s">
+        <v>1</v>
+      </c>
+      <c r="F241">
+        <v>358.5</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+      <c r="H241">
+        <v>55.28</v>
+      </c>
+      <c r="I241">
+        <v>29.55</v>
+      </c>
+      <c r="J241">
+        <v>114.88</v>
+      </c>
+    </row>
+    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>240</v>
+      </c>
+      <c r="B242">
+        <v>3503.4468000000002</v>
+      </c>
+      <c r="C242" t="s">
+        <v>0</v>
+      </c>
+      <c r="D242">
+        <v>8505.1708999999992</v>
+      </c>
+      <c r="E242" t="s">
+        <v>1</v>
+      </c>
+      <c r="F242">
+        <v>358.5</v>
+      </c>
+      <c r="G242">
+        <v>0</v>
+      </c>
+      <c r="H242">
+        <v>59.53</v>
+      </c>
+      <c r="I242">
+        <v>32.11</v>
+      </c>
+      <c r="J242">
+        <v>122.99</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>241</v>
+      </c>
+      <c r="B243">
+        <v>3503.4458</v>
+      </c>
+      <c r="C243" t="s">
+        <v>0</v>
+      </c>
+      <c r="D243">
+        <v>8505.1738000000005</v>
+      </c>
+      <c r="E243" t="s">
+        <v>1</v>
+      </c>
+      <c r="F243">
+        <v>357.9</v>
+      </c>
+      <c r="G243">
+        <v>0</v>
+      </c>
+      <c r="H243">
+        <v>53.84</v>
+      </c>
+      <c r="I243">
+        <v>32.46</v>
+      </c>
+      <c r="J243">
+        <v>126.62</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>242</v>
+      </c>
+      <c r="B244">
+        <v>3503.4458</v>
+      </c>
+      <c r="C244" t="s">
+        <v>0</v>
+      </c>
+      <c r="D244">
+        <v>8505.1748000000007</v>
+      </c>
+      <c r="E244" t="s">
+        <v>1</v>
+      </c>
+      <c r="F244">
+        <v>357.5</v>
+      </c>
+      <c r="G244">
+        <v>0</v>
+      </c>
+      <c r="H244">
+        <v>51.96</v>
+      </c>
+      <c r="I244">
+        <v>31.06</v>
+      </c>
+      <c r="J244">
+        <v>132.86000000000001</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>243</v>
+      </c>
+      <c r="B245">
+        <v>3503.4450999999999</v>
+      </c>
+      <c r="C245" t="s">
+        <v>0</v>
+      </c>
+      <c r="D245">
+        <v>8505.1758000000009</v>
+      </c>
+      <c r="E245" t="s">
+        <v>1</v>
+      </c>
+      <c r="F245">
+        <v>357.5</v>
+      </c>
+      <c r="G245">
+        <v>0</v>
+      </c>
+      <c r="H245">
+        <v>62.63</v>
+      </c>
+      <c r="I245">
+        <v>33.01</v>
+      </c>
+      <c r="J245">
+        <v>145.03</v>
+      </c>
+    </row>
+    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>244</v>
+      </c>
+      <c r="B246">
+        <v>3503.4445999999998</v>
+      </c>
+      <c r="C246" t="s">
+        <v>0</v>
+      </c>
+      <c r="D246">
+        <v>8505.1767999999993</v>
+      </c>
+      <c r="E246" t="s">
+        <v>1</v>
+      </c>
+      <c r="F246">
+        <v>356.5</v>
+      </c>
+      <c r="G246">
+        <v>0</v>
+      </c>
+      <c r="H246">
+        <v>51.21</v>
+      </c>
+      <c r="I246">
+        <v>29.04</v>
+      </c>
+      <c r="J246">
+        <v>146.65</v>
+      </c>
+    </row>
+    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>245</v>
+      </c>
+      <c r="B247">
+        <v>3503.4436000000001</v>
+      </c>
+      <c r="C247" t="s">
+        <v>0</v>
+      </c>
+      <c r="D247">
+        <v>8505.1767999999993</v>
+      </c>
+      <c r="E247" t="s">
+        <v>1</v>
+      </c>
+      <c r="F247">
+        <v>356.5</v>
+      </c>
+      <c r="G247">
+        <v>0</v>
+      </c>
+      <c r="H247">
+        <v>49.71</v>
+      </c>
+      <c r="I247">
+        <v>26.08</v>
+      </c>
+      <c r="J247">
+        <v>154.86000000000001</v>
+      </c>
+    </row>
+    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>246</v>
+      </c>
+      <c r="B248">
+        <v>3503.4436000000001</v>
+      </c>
+      <c r="C248" t="s">
+        <v>0</v>
+      </c>
+      <c r="D248">
+        <v>8505.1767999999993</v>
+      </c>
+      <c r="E248" t="s">
+        <v>1</v>
+      </c>
+      <c r="F248">
+        <v>356.5</v>
+      </c>
+      <c r="G248">
+        <v>0</v>
+      </c>
+      <c r="H248">
+        <v>49.59</v>
+      </c>
+      <c r="I248">
+        <v>25.78</v>
+      </c>
+      <c r="J248">
+        <v>163.71</v>
+      </c>
+    </row>
+    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>247</v>
+      </c>
+      <c r="B249">
+        <v>3503.4436000000001</v>
+      </c>
+      <c r="C249" t="s">
+        <v>0</v>
+      </c>
+      <c r="D249">
+        <v>8505.1767999999993</v>
+      </c>
+      <c r="E249" t="s">
+        <v>1</v>
+      </c>
+      <c r="F249">
+        <v>356.5</v>
+      </c>
+      <c r="G249">
+        <v>0</v>
+      </c>
+      <c r="H249">
+        <v>50.86</v>
+      </c>
+      <c r="I249">
+        <v>35.96</v>
+      </c>
+      <c r="J249">
+        <v>171.91</v>
+      </c>
+    </row>
+    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>248</v>
+      </c>
+      <c r="B250">
+        <v>3503.4409000000001</v>
+      </c>
+      <c r="C250" t="s">
+        <v>0</v>
+      </c>
+      <c r="D250">
+        <v>8505.1815999999999</v>
+      </c>
+      <c r="E250" t="s">
+        <v>1</v>
+      </c>
+      <c r="F250">
+        <v>355.5</v>
+      </c>
+      <c r="G250">
+        <v>0</v>
+      </c>
+      <c r="H250">
+        <v>47.67</v>
+      </c>
+      <c r="I250">
+        <v>36.76</v>
+      </c>
+      <c r="J250">
+        <v>178.57</v>
+      </c>
+    </row>
+    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>249</v>
+      </c>
+      <c r="B251">
+        <v>3503.4409000000001</v>
+      </c>
+      <c r="C251" t="s">
+        <v>0</v>
+      </c>
+      <c r="D251">
+        <v>8505.1815999999999</v>
+      </c>
+      <c r="E251" t="s">
+        <v>1</v>
+      </c>
+      <c r="F251">
+        <v>355.5</v>
+      </c>
+      <c r="G251">
+        <v>0</v>
+      </c>
+      <c r="H251">
+        <v>49.63</v>
+      </c>
+      <c r="I251">
+        <v>33.76</v>
+      </c>
+      <c r="J251">
+        <v>187.96</v>
+      </c>
+    </row>
+    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>250</v>
+      </c>
+      <c r="B252">
+        <v>3503.4395</v>
+      </c>
+      <c r="C252" t="s">
+        <v>0</v>
+      </c>
+      <c r="D252">
+        <v>8505.1836000000003</v>
+      </c>
+      <c r="E252" t="s">
+        <v>1</v>
+      </c>
+      <c r="F252">
+        <v>355.5</v>
+      </c>
+      <c r="G252">
+        <v>0</v>
+      </c>
+      <c r="H252">
+        <v>50.83</v>
+      </c>
+      <c r="I252">
+        <v>36.479999999999997</v>
+      </c>
+      <c r="J252">
+        <v>196.65</v>
+      </c>
+    </row>
+    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>251</v>
+      </c>
+      <c r="B253">
+        <v>3503.4389999999999</v>
+      </c>
+      <c r="C253" t="s">
+        <v>0</v>
+      </c>
+      <c r="D253">
+        <v>8505.1846000000005</v>
+      </c>
+      <c r="E253" t="s">
+        <v>1</v>
+      </c>
+      <c r="F253">
+        <v>353.8</v>
+      </c>
+      <c r="G253">
+        <v>0</v>
+      </c>
+      <c r="H253">
+        <v>50.78</v>
+      </c>
+      <c r="I253">
+        <v>29.47</v>
+      </c>
+      <c r="J253">
+        <v>203.52</v>
+      </c>
+    </row>
+    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>252</v>
+      </c>
+      <c r="B254">
+        <v>3503.4382000000001</v>
+      </c>
+      <c r="C254" t="s">
+        <v>0</v>
+      </c>
+      <c r="D254">
+        <v>8505.1846000000005</v>
+      </c>
+      <c r="E254" t="s">
+        <v>1</v>
+      </c>
+      <c r="F254">
+        <v>353.8</v>
+      </c>
+      <c r="G254">
+        <v>0</v>
+      </c>
+      <c r="H254">
+        <v>34.130000000000003</v>
+      </c>
+      <c r="I254">
+        <v>30.92</v>
+      </c>
+      <c r="J254">
+        <v>204.07</v>
+      </c>
+    </row>
+    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>253</v>
+      </c>
+      <c r="B255">
+        <v>3503.4382000000001</v>
+      </c>
+      <c r="C255" t="s">
+        <v>0</v>
+      </c>
+      <c r="D255">
+        <v>8505.1846000000005</v>
+      </c>
+      <c r="E255" t="s">
+        <v>1</v>
+      </c>
+      <c r="F255">
+        <v>353.8</v>
+      </c>
+      <c r="G255">
+        <v>0</v>
+      </c>
+      <c r="H255">
+        <v>35.06</v>
+      </c>
+      <c r="I255">
+        <v>20.11</v>
+      </c>
+      <c r="J255">
+        <v>212.38</v>
+      </c>
+    </row>
+    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>254</v>
+      </c>
+      <c r="B256">
+        <v>3503.4375</v>
+      </c>
+      <c r="C256" t="s">
+        <v>0</v>
+      </c>
+      <c r="D256">
+        <v>8505.1864999999998</v>
+      </c>
+      <c r="E256" t="s">
+        <v>1</v>
+      </c>
+      <c r="F256">
+        <v>352.2</v>
+      </c>
+      <c r="G256">
+        <v>0</v>
+      </c>
+      <c r="H256">
+        <v>43.88</v>
+      </c>
+      <c r="I256">
+        <v>24.88</v>
+      </c>
+      <c r="J256">
+        <v>223.98</v>
+      </c>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>255</v>
+      </c>
+      <c r="B257">
+        <v>3503.4373000000001</v>
+      </c>
+      <c r="C257" t="s">
+        <v>0</v>
+      </c>
+      <c r="D257">
+        <v>8505.1875</v>
+      </c>
+      <c r="E257" t="s">
+        <v>1</v>
+      </c>
+      <c r="F257">
+        <v>352</v>
+      </c>
+      <c r="G257">
+        <v>0</v>
+      </c>
+      <c r="H257">
+        <v>44.6</v>
+      </c>
+      <c r="I257">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="J257">
+        <v>230.98</v>
+      </c>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>256</v>
+      </c>
+      <c r="B258">
+        <v>3503.4373000000001</v>
+      </c>
+      <c r="C258" t="s">
+        <v>0</v>
+      </c>
+      <c r="D258">
+        <v>8505.1875</v>
+      </c>
+      <c r="E258" t="s">
+        <v>1</v>
+      </c>
+      <c r="F258">
+        <v>352</v>
+      </c>
+      <c r="G258">
+        <v>0</v>
+      </c>
+      <c r="H258">
+        <v>39.15</v>
+      </c>
+      <c r="I258">
+        <v>20.43</v>
+      </c>
+      <c r="J258">
+        <v>235.35</v>
+      </c>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>257</v>
+      </c>
+      <c r="B259">
+        <v>3503.4373000000001</v>
+      </c>
+      <c r="C259" t="s">
+        <v>0</v>
+      </c>
+      <c r="D259">
+        <v>8505.1875</v>
+      </c>
+      <c r="E259" t="s">
+        <v>1</v>
+      </c>
+      <c r="F259">
+        <v>352</v>
+      </c>
+      <c r="G259">
+        <v>0</v>
+      </c>
+      <c r="H259">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="I259">
+        <v>22.01</v>
+      </c>
+      <c r="J259">
+        <v>240.74</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>258</v>
+      </c>
+      <c r="B260">
+        <v>3503.4360000000001</v>
+      </c>
+      <c r="C260" t="s">
+        <v>0</v>
+      </c>
+      <c r="D260">
+        <v>8505.1903999999995</v>
+      </c>
+      <c r="E260" t="s">
+        <v>1</v>
+      </c>
+      <c r="F260">
+        <v>352</v>
+      </c>
+      <c r="G260">
+        <v>0</v>
+      </c>
+      <c r="H260">
+        <v>41.14</v>
+      </c>
+      <c r="I260">
+        <v>15.63</v>
+      </c>
+      <c r="J260">
+        <v>248.94</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>259</v>
+      </c>
+      <c r="B261">
+        <v>3503.4360000000001</v>
+      </c>
+      <c r="C261" t="s">
+        <v>0</v>
+      </c>
+      <c r="D261">
+        <v>8505.1903999999995</v>
+      </c>
+      <c r="E261" t="s">
+        <v>1</v>
+      </c>
+      <c r="F261">
+        <v>352</v>
+      </c>
+      <c r="G261">
+        <v>0</v>
+      </c>
+      <c r="H261">
+        <v>52.91</v>
+      </c>
+      <c r="I261">
+        <v>21.95</v>
+      </c>
+      <c r="J261">
+        <v>259.60000000000002</v>
+      </c>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>260</v>
+      </c>
+      <c r="B262">
+        <v>3503.4360000000001</v>
+      </c>
+      <c r="C262" t="s">
+        <v>0</v>
+      </c>
+      <c r="D262">
+        <v>8505.1903999999995</v>
+      </c>
+      <c r="E262" t="s">
+        <v>1</v>
+      </c>
+      <c r="F262">
+        <v>352</v>
+      </c>
+      <c r="G262">
+        <v>0</v>
+      </c>
+      <c r="H262">
+        <v>57.84</v>
+      </c>
+      <c r="I262">
+        <v>19.89</v>
+      </c>
+      <c r="J262">
+        <v>265.99</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>261</v>
+      </c>
+      <c r="B263">
+        <v>3503.4335999999998</v>
+      </c>
+      <c r="C263" t="s">
+        <v>0</v>
+      </c>
+      <c r="D263">
+        <v>8505.1934000000001</v>
+      </c>
+      <c r="E263" t="s">
+        <v>1</v>
+      </c>
+      <c r="F263">
+        <v>352</v>
+      </c>
+      <c r="G263">
+        <v>0</v>
+      </c>
+      <c r="H263">
+        <v>52.68</v>
+      </c>
+      <c r="I263">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="J263">
+        <v>267.33</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>262</v>
+      </c>
+      <c r="B264">
+        <v>3503.4326000000001</v>
+      </c>
+      <c r="C264" t="s">
+        <v>0</v>
+      </c>
+      <c r="D264">
+        <v>8505.1952999999994</v>
+      </c>
+      <c r="E264" t="s">
+        <v>1</v>
+      </c>
+      <c r="F264">
+        <v>352</v>
+      </c>
+      <c r="G264">
+        <v>0</v>
+      </c>
+      <c r="H264">
+        <v>49.69</v>
+      </c>
+      <c r="I264">
+        <v>8.93</v>
+      </c>
+      <c r="J264">
+        <v>267.79000000000002</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>263</v>
+      </c>
+      <c r="B265">
+        <v>3503.4324000000001</v>
+      </c>
+      <c r="C265" t="s">
+        <v>0</v>
+      </c>
+      <c r="D265">
+        <v>8505.1962999999996</v>
+      </c>
+      <c r="E265" t="s">
+        <v>1</v>
+      </c>
+      <c r="F265">
+        <v>352</v>
+      </c>
+      <c r="G265">
+        <v>0</v>
+      </c>
+      <c r="H265">
+        <v>49.52</v>
+      </c>
+      <c r="I265">
+        <v>16.559999999999999</v>
+      </c>
+      <c r="J265">
+        <v>271.97000000000003</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>264</v>
+      </c>
+      <c r="B266">
+        <v>3503.4321</v>
+      </c>
+      <c r="C266" t="s">
+        <v>0</v>
+      </c>
+      <c r="D266">
+        <v>8505.1982000000007</v>
+      </c>
+      <c r="E266" t="s">
+        <v>1</v>
+      </c>
+      <c r="F266">
+        <v>344.6</v>
+      </c>
+      <c r="G266">
+        <v>0</v>
+      </c>
+      <c r="H266">
+        <v>54.77</v>
+      </c>
+      <c r="I266">
+        <v>12.62</v>
+      </c>
+      <c r="J266">
+        <v>275.89</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>265</v>
+      </c>
+      <c r="B267">
+        <v>3503.4321</v>
+      </c>
+      <c r="C267" t="s">
+        <v>0</v>
+      </c>
+      <c r="D267">
+        <v>8505.1991999999991</v>
+      </c>
+      <c r="E267" t="s">
+        <v>1</v>
+      </c>
+      <c r="F267">
+        <v>344.6</v>
+      </c>
+      <c r="G267">
+        <v>0</v>
+      </c>
+      <c r="H267">
+        <v>60.48</v>
+      </c>
+      <c r="I267">
+        <v>22.13</v>
+      </c>
+      <c r="J267">
+        <v>281.97000000000003</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>266</v>
+      </c>
+      <c r="B268">
+        <v>3503.4308999999998</v>
+      </c>
+      <c r="C268" t="s">
+        <v>0</v>
+      </c>
+      <c r="D268">
+        <v>8505.2011999999995</v>
+      </c>
+      <c r="E268" t="s">
+        <v>1</v>
+      </c>
+      <c r="F268">
+        <v>344.6</v>
+      </c>
+      <c r="G268">
+        <v>0</v>
+      </c>
+      <c r="H268">
+        <v>53.45</v>
+      </c>
+      <c r="I268">
+        <v>19.29</v>
+      </c>
+      <c r="J268">
+        <v>278.79000000000002</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>267</v>
+      </c>
+      <c r="B269">
+        <v>3503.4297000000001</v>
+      </c>
+      <c r="C269" t="s">
+        <v>0</v>
+      </c>
+      <c r="D269">
+        <v>8505.2031000000006</v>
+      </c>
+      <c r="E269" t="s">
+        <v>1</v>
+      </c>
+      <c r="F269">
+        <v>344.6</v>
+      </c>
+      <c r="G269">
+        <v>0</v>
+      </c>
+      <c r="H269">
+        <v>47.64</v>
+      </c>
+      <c r="I269">
+        <v>13.93</v>
+      </c>
+      <c r="J269">
+        <v>276.64999999999998</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>268</v>
+      </c>
+      <c r="B270">
+        <v>3503.4297000000001</v>
+      </c>
+      <c r="C270" t="s">
+        <v>0</v>
+      </c>
+      <c r="D270">
+        <v>8505.2031000000006</v>
+      </c>
+      <c r="E270" t="s">
+        <v>1</v>
+      </c>
+      <c r="F270">
+        <v>344.6</v>
+      </c>
+      <c r="G270">
+        <v>0</v>
+      </c>
+      <c r="H270">
+        <v>47.97</v>
+      </c>
+      <c r="I270">
+        <v>22.12</v>
+      </c>
+      <c r="J270">
+        <v>279.64</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>269</v>
+      </c>
+      <c r="B271">
+        <v>3503.4259999999999</v>
+      </c>
+      <c r="C271" t="s">
+        <v>0</v>
+      </c>
+      <c r="D271">
+        <v>8505.2070000000003</v>
+      </c>
+      <c r="E271" t="s">
+        <v>1</v>
+      </c>
+      <c r="F271">
+        <v>337.9</v>
+      </c>
+      <c r="G271">
+        <v>0</v>
+      </c>
+      <c r="H271">
+        <v>41.24</v>
+      </c>
+      <c r="I271">
+        <v>23.53</v>
+      </c>
+      <c r="J271">
+        <v>278.41000000000003</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>270</v>
+      </c>
+      <c r="B272">
+        <v>3503.4259999999999</v>
+      </c>
+      <c r="C272" t="s">
+        <v>0</v>
+      </c>
+      <c r="D272">
+        <v>8505.2070000000003</v>
+      </c>
+      <c r="E272" t="s">
+        <v>1</v>
+      </c>
+      <c r="F272">
+        <v>337.9</v>
+      </c>
+      <c r="G272">
+        <v>0</v>
+      </c>
+      <c r="H272">
+        <v>39.630000000000003</v>
+      </c>
+      <c r="I272">
+        <v>22.77</v>
+      </c>
+      <c r="J272">
+        <v>278.91000000000003</v>
+      </c>
+    </row>
+    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>271</v>
+      </c>
+      <c r="B273">
+        <v>3503.4236000000001</v>
+      </c>
+      <c r="C273" t="s">
+        <v>0</v>
+      </c>
+      <c r="D273">
+        <v>8505.2090000000007</v>
+      </c>
+      <c r="E273" t="s">
+        <v>1</v>
+      </c>
+      <c r="F273">
+        <v>337.9</v>
+      </c>
+      <c r="G273">
+        <v>0</v>
+      </c>
+      <c r="H273">
+        <v>43.78</v>
+      </c>
+      <c r="I273">
+        <v>22.85</v>
+      </c>
+      <c r="J273">
+        <v>281.77</v>
+      </c>
+    </row>
+    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>272</v>
+      </c>
+      <c r="B274">
+        <v>3503.4229</v>
+      </c>
+      <c r="C274" t="s">
+        <v>0</v>
+      </c>
+      <c r="D274">
+        <v>8505.2099999999991</v>
+      </c>
+      <c r="E274" t="s">
+        <v>1</v>
+      </c>
+      <c r="F274">
+        <v>334.2</v>
+      </c>
+      <c r="G274">
+        <v>0</v>
+      </c>
+      <c r="H274">
+        <v>43.05</v>
+      </c>
+      <c r="I274">
+        <v>19.97</v>
+      </c>
+      <c r="J274">
+        <v>281.57</v>
+      </c>
+    </row>
+    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>273</v>
+      </c>
+      <c r="B275">
+        <v>3503.4211</v>
+      </c>
+      <c r="C275" t="s">
+        <v>0</v>
+      </c>
+      <c r="D275">
+        <v>8505.2119000000002</v>
+      </c>
+      <c r="E275" t="s">
+        <v>1</v>
+      </c>
+      <c r="F275">
+        <v>334.2</v>
+      </c>
+      <c r="G275">
+        <v>0</v>
+      </c>
+      <c r="H275">
+        <v>39.94</v>
+      </c>
+      <c r="I275">
+        <v>12.76</v>
+      </c>
+      <c r="J275">
+        <v>279.91000000000003</v>
+      </c>
+    </row>
+    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>274</v>
+      </c>
+      <c r="B276">
+        <v>3503.4180000000001</v>
+      </c>
+      <c r="C276" t="s">
+        <v>0</v>
+      </c>
+      <c r="D276">
+        <v>8505.2168000000001</v>
+      </c>
+      <c r="E276" t="s">
+        <v>1</v>
+      </c>
+      <c r="F276">
+        <v>334.2</v>
+      </c>
+      <c r="G276">
+        <v>0</v>
+      </c>
+      <c r="H276">
+        <v>56.94</v>
+      </c>
+      <c r="I276">
+        <v>16.88</v>
+      </c>
+      <c r="J276">
+        <v>287.04000000000002</v>
+      </c>
+    </row>
+    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>275</v>
+      </c>
+      <c r="B277">
+        <v>3503.4180000000001</v>
+      </c>
+      <c r="C277" t="s">
+        <v>0</v>
+      </c>
+      <c r="D277">
+        <v>8505.2168000000001</v>
+      </c>
+      <c r="E277" t="s">
+        <v>1</v>
+      </c>
+      <c r="F277">
+        <v>334.2</v>
+      </c>
+      <c r="G277">
+        <v>0</v>
+      </c>
+      <c r="H277">
+        <v>53.95</v>
+      </c>
+      <c r="I277">
+        <v>18.03</v>
+      </c>
+      <c r="J277">
+        <v>285.07</v>
+      </c>
+    </row>
+    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>276</v>
+      </c>
+      <c r="B278">
+        <v>3503.4180000000001</v>
+      </c>
+      <c r="C278" t="s">
+        <v>0</v>
+      </c>
+      <c r="D278">
+        <v>8505.2168000000001</v>
+      </c>
+      <c r="E278" t="s">
+        <v>1</v>
+      </c>
+      <c r="F278">
+        <v>334.2</v>
+      </c>
+      <c r="G278">
+        <v>0</v>
+      </c>
+      <c r="H278">
+        <v>53.61</v>
+      </c>
+      <c r="I278">
+        <v>20.05</v>
+      </c>
+      <c r="J278">
+        <v>283.73</v>
+      </c>
+    </row>
+    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>277</v>
+      </c>
+      <c r="B279">
+        <v>3503.4124000000002</v>
+      </c>
+      <c r="C279" t="s">
+        <v>0</v>
+      </c>
+      <c r="D279">
+        <v>8505.2227000000003</v>
+      </c>
+      <c r="E279" t="s">
+        <v>1</v>
+      </c>
+      <c r="F279">
+        <v>334.2</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="H279">
+        <v>43.27</v>
+      </c>
+      <c r="I279">
+        <v>14.78</v>
+      </c>
+      <c r="J279">
+        <v>274.98</v>
+      </c>
+    </row>
+    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>278</v>
+      </c>
+      <c r="B280">
+        <v>3503.4114</v>
+      </c>
+      <c r="C280" t="s">
+        <v>0</v>
+      </c>
+      <c r="D280">
+        <v>8505.2235999999994</v>
+      </c>
+      <c r="E280" t="s">
+        <v>1</v>
+      </c>
+      <c r="F280">
+        <v>334.2</v>
+      </c>
+      <c r="G280">
+        <v>0</v>
+      </c>
+      <c r="H280">
+        <v>53.69</v>
+      </c>
+      <c r="I280">
+        <v>14.26</v>
+      </c>
+      <c r="J280">
+        <v>277.02999999999997</v>
+      </c>
+    </row>
+    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>279</v>
+      </c>
+      <c r="B281">
+        <v>3503.4108999999999</v>
+      </c>
+      <c r="C281" t="s">
+        <v>0</v>
+      </c>
+      <c r="D281">
+        <v>8505.2245999999996</v>
+      </c>
+      <c r="E281" t="s">
+        <v>1</v>
+      </c>
+      <c r="F281">
+        <v>315.5</v>
+      </c>
+      <c r="G281">
+        <v>0</v>
+      </c>
+      <c r="H281">
+        <v>52.11</v>
+      </c>
+      <c r="I281">
+        <v>16.68</v>
+      </c>
+      <c r="J281">
+        <v>274.31</v>
+      </c>
+    </row>
+    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>280</v>
+      </c>
+      <c r="B282">
+        <v>3503.4104000000002</v>
+      </c>
+      <c r="C282" t="s">
+        <v>0</v>
+      </c>
+      <c r="D282">
+        <v>8505.2255999999998</v>
+      </c>
+      <c r="E282" t="s">
+        <v>1</v>
+      </c>
+      <c r="F282">
+        <v>315.5</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+      <c r="H282">
+        <v>47.55</v>
+      </c>
+      <c r="I282">
+        <v>14</v>
+      </c>
+      <c r="J282">
+        <v>268.89</v>
+      </c>
+    </row>
+    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>281</v>
+      </c>
+      <c r="B283">
+        <v>3503.4104000000002</v>
+      </c>
+      <c r="C283" t="s">
+        <v>0</v>
+      </c>
+      <c r="D283">
+        <v>8505.2255999999998</v>
+      </c>
+      <c r="E283" t="s">
+        <v>1</v>
+      </c>
+      <c r="F283">
+        <v>315.5</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+      <c r="H283">
+        <v>43.72</v>
+      </c>
+      <c r="I283">
+        <v>14.84</v>
+      </c>
+      <c r="J283">
+        <v>266.08999999999997</v>
+      </c>
+    </row>
+    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>282</v>
+      </c>
+      <c r="B284">
+        <v>3503.4094</v>
+      </c>
+      <c r="C284" t="s">
+        <v>0</v>
+      </c>
+      <c r="D284">
+        <v>8505.2284999999993</v>
+      </c>
+      <c r="E284" t="s">
+        <v>1</v>
+      </c>
+      <c r="F284">
+        <v>312.2</v>
+      </c>
+      <c r="G284">
+        <v>0</v>
+      </c>
+      <c r="H284">
+        <v>49.24</v>
+      </c>
+      <c r="I284">
+        <v>25.56</v>
+      </c>
+      <c r="J284">
+        <v>268.85000000000002</v>
+      </c>
+    </row>
+    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>283</v>
+      </c>
+      <c r="B285">
+        <v>3503.4092000000001</v>
+      </c>
+      <c r="C285" t="s">
+        <v>0</v>
+      </c>
+      <c r="D285">
+        <v>8505.2304999999997</v>
+      </c>
+      <c r="E285" t="s">
+        <v>1</v>
+      </c>
+      <c r="F285">
+        <v>309.8</v>
+      </c>
+      <c r="G285">
+        <v>0</v>
+      </c>
+      <c r="H285">
+        <v>49.5</v>
+      </c>
+      <c r="I285">
+        <v>23.6</v>
+      </c>
+      <c r="J285">
+        <v>268.93</v>
+      </c>
+    </row>
+    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>284</v>
+      </c>
+      <c r="B286">
+        <v>3503.4088999999999</v>
+      </c>
+      <c r="C286" t="s">
+        <v>0</v>
+      </c>
+      <c r="D286">
+        <v>8505.2314000000006</v>
+      </c>
+      <c r="E286" t="s">
+        <v>1</v>
+      </c>
+      <c r="F286">
+        <v>309.8</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
+      <c r="H286">
+        <v>49.05</v>
+      </c>
+      <c r="I286">
+        <v>19.510000000000002</v>
+      </c>
+      <c r="J286">
+        <v>267.87</v>
+      </c>
+    </row>
+    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>285</v>
+      </c>
+      <c r="B287">
+        <v>3503.4088999999999</v>
+      </c>
+      <c r="C287" t="s">
+        <v>0</v>
+      </c>
+      <c r="D287">
+        <v>8505.2314000000006</v>
+      </c>
+      <c r="E287" t="s">
+        <v>1</v>
+      </c>
+      <c r="F287">
+        <v>309.8</v>
+      </c>
+      <c r="G287">
+        <v>0</v>
+      </c>
+      <c r="H287">
+        <v>43.1</v>
+      </c>
+      <c r="I287">
+        <v>23.06</v>
+      </c>
+      <c r="J287">
+        <v>264.04000000000002</v>
+      </c>
+    </row>
+    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>286</v>
+      </c>
+      <c r="B288">
+        <v>3503.4077000000002</v>
+      </c>
+      <c r="C288" t="s">
+        <v>0</v>
+      </c>
+      <c r="D288">
+        <v>8505.2333999999992</v>
+      </c>
+      <c r="E288" t="s">
+        <v>1</v>
+      </c>
+      <c r="F288">
+        <v>306.89999999999998</v>
+      </c>
+      <c r="G288">
+        <v>0</v>
+      </c>
+      <c r="H288">
+        <v>51.77</v>
+      </c>
+      <c r="I288">
+        <v>24.96</v>
+      </c>
+      <c r="J288">
+        <v>266.14</v>
+      </c>
+    </row>
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>287</v>
+      </c>
+      <c r="B289">
+        <v>3503.4067</v>
+      </c>
+      <c r="C289" t="s">
+        <v>0</v>
+      </c>
+      <c r="D289">
+        <v>8505.2353999999996</v>
+      </c>
+      <c r="E289" t="s">
+        <v>1</v>
+      </c>
+      <c r="F289">
+        <v>305.39999999999998</v>
+      </c>
+      <c r="G289">
+        <v>0</v>
+      </c>
+      <c r="H289">
+        <v>47.99</v>
+      </c>
+      <c r="I289">
+        <v>14.33</v>
+      </c>
+      <c r="J289">
+        <v>261.58</v>
+      </c>
+    </row>
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>288</v>
+      </c>
+      <c r="B290">
+        <v>3503.4059999999999</v>
+      </c>
+      <c r="C290" t="s">
+        <v>0</v>
+      </c>
+      <c r="D290">
+        <v>8505.2353999999996</v>
+      </c>
+      <c r="E290" t="s">
+        <v>1</v>
+      </c>
+      <c r="F290">
+        <v>305.39999999999998</v>
+      </c>
+      <c r="G290">
+        <v>0</v>
+      </c>
+      <c r="H290">
+        <v>56.8</v>
+      </c>
+      <c r="I290">
+        <v>15.76</v>
+      </c>
+      <c r="J290">
+        <v>263.33</v>
+      </c>
+    </row>
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>289</v>
+      </c>
+      <c r="B291">
+        <v>3503.4047999999998</v>
+      </c>
+      <c r="C291" t="s">
+        <v>0</v>
+      </c>
+      <c r="D291">
+        <v>8505.2373000000007</v>
+      </c>
+      <c r="E291" t="s">
+        <v>1</v>
+      </c>
+      <c r="F291">
+        <v>305.39999999999998</v>
+      </c>
+      <c r="G291">
+        <v>0</v>
+      </c>
+      <c r="H291">
+        <v>61.72</v>
+      </c>
+      <c r="I291">
+        <v>12.48</v>
+      </c>
+      <c r="J291">
+        <v>262.52999999999997</v>
+      </c>
+    </row>
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>290</v>
+      </c>
+      <c r="B292">
+        <v>3503.4041000000002</v>
+      </c>
+      <c r="C292" t="s">
+        <v>0</v>
+      </c>
+      <c r="D292">
+        <v>8505.2373000000007</v>
+      </c>
+      <c r="E292" t="s">
+        <v>1</v>
+      </c>
+      <c r="F292">
+        <v>304.2</v>
+      </c>
+      <c r="G292">
+        <v>0</v>
+      </c>
+      <c r="H292">
+        <v>52.11</v>
+      </c>
+      <c r="I292">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="J292">
+        <v>255.54</v>
+      </c>
+    </row>
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>291</v>
+      </c>
+      <c r="B293">
+        <v>3503.4036000000001</v>
+      </c>
+      <c r="C293" t="s">
+        <v>0</v>
+      </c>
+      <c r="D293">
+        <v>8505.2383000000009</v>
+      </c>
+      <c r="E293" t="s">
+        <v>1</v>
+      </c>
+      <c r="F293">
+        <v>304.2</v>
+      </c>
+      <c r="G293">
+        <v>0</v>
+      </c>
+      <c r="H293">
+        <v>55.23</v>
+      </c>
+      <c r="I293">
+        <v>14.65</v>
+      </c>
+      <c r="J293">
+        <v>255.2</v>
+      </c>
+    </row>
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>292</v>
+      </c>
+      <c r="B294">
+        <v>3503.4036000000001</v>
+      </c>
+      <c r="C294" t="s">
+        <v>0</v>
+      </c>
+      <c r="D294">
+        <v>8505.2383000000009</v>
+      </c>
+      <c r="E294" t="s">
+        <v>1</v>
+      </c>
+      <c r="F294">
+        <v>304.2</v>
+      </c>
+      <c r="G294">
+        <v>0</v>
+      </c>
+      <c r="H294">
+        <v>57.56</v>
+      </c>
+      <c r="I294">
+        <v>18.22</v>
+      </c>
+      <c r="J294">
+        <v>254.65</v>
+      </c>
+    </row>
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>293</v>
+      </c>
+      <c r="B295">
+        <v>3503.4014000000002</v>
+      </c>
+      <c r="C295" t="s">
+        <v>0</v>
+      </c>
+      <c r="D295">
+        <v>8505.2392999999993</v>
+      </c>
+      <c r="E295" t="s">
+        <v>1</v>
+      </c>
+      <c r="F295">
+        <v>304.2</v>
+      </c>
+      <c r="G295">
+        <v>0</v>
+      </c>
+      <c r="H295">
+        <v>50.29</v>
+      </c>
+      <c r="I295">
+        <v>16.95</v>
+      </c>
+      <c r="J295">
+        <v>247.84</v>
+      </c>
+    </row>
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>294</v>
+      </c>
+      <c r="B296">
+        <v>3503.3998999999999</v>
+      </c>
+      <c r="C296" t="s">
+        <v>0</v>
+      </c>
+      <c r="D296">
+        <v>8505.2422000000006</v>
+      </c>
+      <c r="E296" t="s">
+        <v>1</v>
+      </c>
+      <c r="F296">
+        <v>304.2</v>
+      </c>
+      <c r="G296">
+        <v>0</v>
+      </c>
+      <c r="H296">
+        <v>49.58</v>
+      </c>
+      <c r="I296">
+        <v>23.6</v>
+      </c>
+      <c r="J296">
+        <v>246.3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>295</v>
+      </c>
+      <c r="B297">
+        <v>3503.3984</v>
+      </c>
+      <c r="C297" t="s">
+        <v>0</v>
+      </c>
+      <c r="D297">
+        <v>8505.2432000000008</v>
+      </c>
+      <c r="E297" t="s">
+        <v>1</v>
+      </c>
+      <c r="F297">
+        <v>302.39999999999998</v>
+      </c>
+      <c r="G297">
+        <v>0</v>
+      </c>
+      <c r="H297">
+        <v>43.36</v>
+      </c>
+      <c r="I297">
+        <v>30.81</v>
+      </c>
+      <c r="J297">
+        <v>241.13</v>
+      </c>
+    </row>
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>296</v>
+      </c>
+      <c r="B298">
+        <v>3503.3984</v>
+      </c>
+      <c r="C298" t="s">
+        <v>0</v>
+      </c>
+      <c r="D298">
+        <v>8505.2432000000008</v>
+      </c>
+      <c r="E298" t="s">
+        <v>1</v>
+      </c>
+      <c r="F298">
+        <v>302.39999999999998</v>
+      </c>
+      <c r="G298">
+        <v>0</v>
+      </c>
+      <c r="H298">
+        <v>49.49</v>
+      </c>
+      <c r="I298">
+        <v>26.04</v>
+      </c>
+      <c r="J298">
+        <v>242.81</v>
+      </c>
+    </row>
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>297</v>
+      </c>
+      <c r="B299">
+        <v>3503.3971999999999</v>
+      </c>
+      <c r="C299" t="s">
+        <v>0</v>
+      </c>
+      <c r="D299">
+        <v>8505.2440999999999</v>
+      </c>
+      <c r="E299" t="s">
+        <v>1</v>
+      </c>
+      <c r="F299">
+        <v>302.39999999999998</v>
+      </c>
+      <c r="G299">
+        <v>0</v>
+      </c>
+      <c r="H299">
+        <v>51.58</v>
+      </c>
+      <c r="I299">
+        <v>31.62</v>
+      </c>
+      <c r="J299">
+        <v>243.41</v>
+      </c>
+    </row>
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>298</v>
+      </c>
+      <c r="B300">
+        <v>3503.3964999999998</v>
+      </c>
+      <c r="C300" t="s">
+        <v>0</v>
+      </c>
+      <c r="D300">
+        <v>8505.2451000000001</v>
+      </c>
+      <c r="E300" t="s">
+        <v>1</v>
+      </c>
+      <c r="F300">
+        <v>302</v>
+      </c>
+      <c r="G300">
+        <v>0</v>
+      </c>
+      <c r="H300">
+        <v>52.6</v>
+      </c>
+      <c r="I300">
+        <v>30.46</v>
+      </c>
+      <c r="J300">
+        <v>242.24</v>
+      </c>
+    </row>
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>299</v>
+      </c>
+      <c r="B301">
+        <v>3503.395</v>
+      </c>
+      <c r="C301" t="s">
+        <v>0</v>
+      </c>
+      <c r="D301">
+        <v>8505.2461000000003</v>
+      </c>
+      <c r="E301" t="s">
+        <v>1</v>
+      </c>
+      <c r="F301">
+        <v>302</v>
+      </c>
+      <c r="G301">
+        <v>0</v>
+      </c>
+      <c r="H301">
+        <v>48.86</v>
+      </c>
+      <c r="I301">
+        <v>32.29</v>
+      </c>
+      <c r="J301">
+        <v>239.51</v>
+      </c>
+    </row>
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>300</v>
+      </c>
+      <c r="B302">
+        <v>3503.3944999999999</v>
+      </c>
+      <c r="C302" t="s">
+        <v>0</v>
+      </c>
+      <c r="D302">
+        <v>8505.2461000000003</v>
+      </c>
+      <c r="E302" t="s">
+        <v>1</v>
+      </c>
+      <c r="F302">
+        <v>302</v>
+      </c>
+      <c r="G302">
+        <v>0</v>
+      </c>
+      <c r="H302">
+        <v>46.23</v>
+      </c>
+      <c r="I302">
+        <v>30.8</v>
+      </c>
+      <c r="J302">
+        <v>235.6</v>
+      </c>
+    </row>
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>301</v>
+      </c>
+      <c r="B303">
+        <v>3503.3930999999998</v>
+      </c>
+      <c r="C303" t="s">
+        <v>0</v>
+      </c>
+      <c r="D303">
+        <v>8505.2471000000005</v>
+      </c>
+      <c r="E303" t="s">
+        <v>1</v>
+      </c>
+      <c r="F303">
+        <v>302</v>
+      </c>
+      <c r="G303">
+        <v>0</v>
+      </c>
+      <c r="H303">
+        <v>46.89</v>
+      </c>
+      <c r="I303">
+        <v>27.6</v>
+      </c>
+      <c r="J303">
+        <v>233.98</v>
+      </c>
+    </row>
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>302</v>
+      </c>
+      <c r="B304">
+        <v>3503.3923</v>
+      </c>
+      <c r="C304" t="s">
+        <v>0</v>
+      </c>
+      <c r="D304">
+        <v>8505.2479999999996</v>
+      </c>
+      <c r="E304" t="s">
+        <v>1</v>
+      </c>
+      <c r="F304">
+        <v>300.89999999999998</v>
+      </c>
+      <c r="G304">
+        <v>0</v>
+      </c>
+      <c r="H304">
+        <v>44.95</v>
+      </c>
+      <c r="I304">
+        <v>29.36</v>
+      </c>
+      <c r="J304">
+        <v>231.4</v>
+      </c>
+    </row>
+    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>303</v>
+      </c>
+      <c r="B305">
+        <v>3503.3923</v>
+      </c>
+      <c r="C305" t="s">
+        <v>0</v>
+      </c>
+      <c r="D305">
+        <v>8505.2479999999996</v>
+      </c>
+      <c r="E305" t="s">
+        <v>1</v>
+      </c>
+      <c r="F305">
+        <v>300.89999999999998</v>
+      </c>
+      <c r="G305">
+        <v>0</v>
+      </c>
+      <c r="H305">
+        <v>50.62</v>
+      </c>
+      <c r="I305">
+        <v>27.65</v>
+      </c>
+      <c r="J305">
+        <v>232.33</v>
+      </c>
+    </row>
+    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>304</v>
+      </c>
+      <c r="B306">
+        <v>3503.3904000000002</v>
+      </c>
+      <c r="C306" t="s">
+        <v>0</v>
+      </c>
+      <c r="D306">
+        <v>8505.2489999999998</v>
+      </c>
+      <c r="E306" t="s">
+        <v>1</v>
+      </c>
+      <c r="F306">
+        <v>300.89999999999998</v>
+      </c>
+      <c r="G306">
+        <v>0</v>
+      </c>
+      <c r="H306">
+        <v>50.37</v>
+      </c>
+      <c r="I306">
+        <v>26.18</v>
+      </c>
+      <c r="J306">
+        <v>230.26</v>
+      </c>
+    </row>
+    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>305</v>
+      </c>
+      <c r="B307">
+        <v>3503.3899000000001</v>
+      </c>
+      <c r="C307" t="s">
+        <v>0</v>
+      </c>
+      <c r="D307">
+        <v>8505.25</v>
+      </c>
+      <c r="E307" t="s">
+        <v>1</v>
+      </c>
+      <c r="F307">
+        <v>300.89999999999998</v>
+      </c>
+      <c r="G307">
+        <v>0</v>
+      </c>
+      <c r="H307">
+        <v>51.27</v>
+      </c>
+      <c r="I307">
+        <v>21.22</v>
+      </c>
+      <c r="J307">
+        <v>229.45</v>
+      </c>
+    </row>
+    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>306</v>
+      </c>
+      <c r="B308">
+        <v>3503.3899000000001</v>
+      </c>
+      <c r="C308" t="s">
+        <v>0</v>
+      </c>
+      <c r="D308">
+        <v>8505.25</v>
+      </c>
+      <c r="E308" t="s">
+        <v>1</v>
+      </c>
+      <c r="F308">
+        <v>300.89999999999998</v>
+      </c>
+      <c r="G308">
+        <v>0</v>
+      </c>
+      <c r="H308">
+        <v>50.02</v>
+      </c>
+      <c r="I308">
+        <v>18.27</v>
+      </c>
+      <c r="J308">
+        <v>228.36</v>
+      </c>
+    </row>
+    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>307</v>
+      </c>
+      <c r="B309">
+        <v>3503.3899000000001</v>
+      </c>
+      <c r="C309" t="s">
+        <v>0</v>
+      </c>
+      <c r="D309">
+        <v>8505.25</v>
+      </c>
+      <c r="E309" t="s">
+        <v>1</v>
+      </c>
+      <c r="F309">
+        <v>300.89999999999998</v>
+      </c>
+      <c r="G309">
+        <v>0</v>
+      </c>
+      <c r="H309">
+        <v>46.24</v>
+      </c>
+      <c r="I309">
+        <v>11.54</v>
+      </c>
+      <c r="J309">
+        <v>226.27</v>
+      </c>
+    </row>
+    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>308</v>
+      </c>
+      <c r="B310">
+        <v>3503.3877000000002</v>
+      </c>
+      <c r="C310" t="s">
+        <v>0</v>
+      </c>
+      <c r="D310">
+        <v>8505.2520000000004</v>
+      </c>
+      <c r="E310" t="s">
+        <v>1</v>
+      </c>
+      <c r="F310">
+        <v>300.89999999999998</v>
+      </c>
+      <c r="G310">
+        <v>0</v>
+      </c>
+      <c r="H310">
+        <v>50.15</v>
+      </c>
+      <c r="I310">
+        <v>19.39</v>
+      </c>
+      <c r="J310">
+        <v>227.41</v>
+      </c>
+    </row>
+    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>309</v>
+      </c>
+      <c r="B311">
+        <v>3503.3872000000001</v>
+      </c>
+      <c r="C311" t="s">
+        <v>0</v>
+      </c>
+      <c r="D311">
+        <v>8505.2528999999995</v>
+      </c>
+      <c r="E311" t="s">
+        <v>1</v>
+      </c>
+      <c r="F311">
+        <v>300.89999999999998</v>
+      </c>
+      <c r="G311">
+        <v>0</v>
+      </c>
+      <c r="H311">
+        <v>44.96</v>
+      </c>
+      <c r="I311">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="J311">
+        <v>224.87</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>310</v>
+      </c>
+      <c r="B312">
+        <v>3503.3872000000001</v>
+      </c>
+      <c r="C312" t="s">
+        <v>0</v>
+      </c>
+      <c r="D312">
+        <v>8505.2528999999995</v>
+      </c>
+      <c r="E312" t="s">
+        <v>1</v>
+      </c>
+      <c r="F312">
+        <v>300.89999999999998</v>
+      </c>
+      <c r="G312">
+        <v>0</v>
+      </c>
+      <c r="H312">
+        <v>52.55</v>
+      </c>
+      <c r="I312">
+        <v>26.84</v>
+      </c>
+      <c r="J312">
+        <v>229.51</v>
+      </c>
+    </row>
+    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>311</v>
+      </c>
+      <c r="B313">
+        <v>3503.3872000000001</v>
+      </c>
+      <c r="C313" t="s">
+        <v>0</v>
+      </c>
+      <c r="D313">
+        <v>8505.2528999999995</v>
+      </c>
+      <c r="E313" t="s">
+        <v>1</v>
+      </c>
+      <c r="F313">
+        <v>300.89999999999998</v>
+      </c>
+      <c r="G313">
+        <v>0</v>
+      </c>
+      <c r="H313">
+        <v>48.97</v>
+      </c>
+      <c r="I313">
+        <v>26.52</v>
+      </c>
+      <c r="J313">
+        <v>229.15</v>
+      </c>
+    </row>
+    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>312</v>
+      </c>
+      <c r="B314">
+        <v>3503.3854999999999</v>
+      </c>
+      <c r="C314" t="s">
+        <v>0</v>
+      </c>
+      <c r="D314">
+        <v>8505.2559000000001</v>
+      </c>
+      <c r="E314" t="s">
+        <v>1</v>
+      </c>
+      <c r="F314">
+        <v>300.89999999999998</v>
+      </c>
+      <c r="G314">
+        <v>0</v>
+      </c>
+      <c r="H314">
+        <v>51.72</v>
+      </c>
+      <c r="I314">
+        <v>28.02</v>
+      </c>
+      <c r="J314">
+        <v>232.26</v>
+      </c>
+    </row>
+    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>313</v>
+      </c>
+      <c r="B315">
+        <v>3503.3850000000002</v>
+      </c>
+      <c r="C315" t="s">
+        <v>0</v>
+      </c>
+      <c r="D315">
+        <v>8505.2567999999992</v>
+      </c>
+      <c r="E315" t="s">
+        <v>1</v>
+      </c>
+      <c r="F315">
+        <v>300.89999999999998</v>
+      </c>
+      <c r="G315">
+        <v>0</v>
+      </c>
+      <c r="H315">
+        <v>49.4</v>
+      </c>
+      <c r="I315">
+        <v>20.62</v>
+      </c>
+      <c r="J315">
+        <v>231.08</v>
+      </c>
+    </row>
+    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>314</v>
+      </c>
+      <c r="B316">
+        <v>3503.3850000000002</v>
+      </c>
+      <c r="C316" t="s">
+        <v>0</v>
+      </c>
+      <c r="D316">
+        <v>8505.2567999999992</v>
+      </c>
+      <c r="E316" t="s">
+        <v>1</v>
+      </c>
+      <c r="F316">
+        <v>300.89999999999998</v>
+      </c>
+      <c r="G316">
+        <v>0</v>
+      </c>
+      <c r="H316">
+        <v>48.95</v>
+      </c>
+      <c r="I316">
+        <v>24.88</v>
+      </c>
+      <c r="J316">
+        <v>231.91</v>
+      </c>
+    </row>
+    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>315</v>
+      </c>
+      <c r="B317">
+        <v>3503.3850000000002</v>
+      </c>
+      <c r="C317" t="s">
+        <v>0</v>
+      </c>
+      <c r="D317">
+        <v>8505.2567999999992</v>
+      </c>
+      <c r="E317" t="s">
+        <v>1</v>
+      </c>
+      <c r="F317">
+        <v>300.89999999999998</v>
+      </c>
+      <c r="G317">
+        <v>0</v>
+      </c>
+      <c r="H317">
+        <v>56.15</v>
+      </c>
+      <c r="I317">
+        <v>22.43</v>
+      </c>
+      <c r="J317">
+        <v>236.76</v>
+      </c>
+    </row>
+    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>316</v>
+      </c>
+      <c r="B318">
+        <v>3503.3831</v>
+      </c>
+      <c r="C318" t="s">
+        <v>0</v>
+      </c>
+      <c r="D318">
+        <v>8505.2587999999996</v>
+      </c>
+      <c r="E318" t="s">
+        <v>1</v>
+      </c>
+      <c r="F318">
+        <v>300.89999999999998</v>
+      </c>
+      <c r="G318">
+        <v>0</v>
+      </c>
+      <c r="H318">
+        <v>58.91</v>
+      </c>
+      <c r="I318">
+        <v>14</v>
+      </c>
+      <c r="J318">
+        <v>238.31</v>
+      </c>
+    </row>
+    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>317</v>
+      </c>
+      <c r="B319">
+        <v>3503.3825999999999</v>
+      </c>
+      <c r="C319" t="s">
+        <v>0</v>
+      </c>
+      <c r="D319">
+        <v>8505.2597999999998</v>
+      </c>
+      <c r="E319" t="s">
+        <v>1</v>
+      </c>
+      <c r="F319">
+        <v>300.89999999999998</v>
+      </c>
+      <c r="G319">
+        <v>0</v>
+      </c>
+      <c r="H319">
+        <v>61.52</v>
+      </c>
+      <c r="I319">
+        <v>12.67</v>
+      </c>
+      <c r="J319">
+        <v>241.1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>318</v>
+      </c>
+      <c r="B320">
+        <v>3503.3813</v>
+      </c>
+      <c r="C320" t="s">
+        <v>0</v>
+      </c>
+      <c r="D320">
+        <v>8505.2607000000007</v>
+      </c>
+      <c r="E320" t="s">
+        <v>1</v>
+      </c>
+      <c r="F320">
+        <v>299.3</v>
+      </c>
+      <c r="G320">
+        <v>0</v>
+      </c>
+      <c r="H320">
+        <v>62.22</v>
+      </c>
+      <c r="I320">
+        <v>12.14</v>
+      </c>
+      <c r="J320">
+        <v>241.69</v>
+      </c>
+    </row>
+    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>319</v>
+      </c>
+      <c r="B321">
+        <v>3503.3813</v>
+      </c>
+      <c r="C321" t="s">
+        <v>0</v>
+      </c>
+      <c r="D321">
+        <v>8505.2607000000007</v>
+      </c>
+      <c r="E321" t="s">
+        <v>1</v>
+      </c>
+      <c r="F321">
+        <v>299.3</v>
+      </c>
+      <c r="G321">
+        <v>0</v>
+      </c>
+      <c r="H321">
+        <v>70.739999999999995</v>
+      </c>
+      <c r="I321">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="J321">
+        <v>244.83</v>
+      </c>
+    </row>
+    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>320</v>
+      </c>
+      <c r="B322">
+        <v>3503.3804</v>
+      </c>
+      <c r="C322" t="s">
+        <v>0</v>
+      </c>
+      <c r="D322">
+        <v>8505.2626999999993</v>
+      </c>
+      <c r="E322" t="s">
+        <v>1</v>
+      </c>
+      <c r="F322">
+        <v>299.3</v>
+      </c>
+      <c r="G322">
+        <v>0</v>
+      </c>
+      <c r="H322">
+        <v>53.59</v>
+      </c>
+      <c r="I322">
+        <v>11.67</v>
+      </c>
+      <c r="J322">
+        <v>239.29</v>
+      </c>
+    </row>
+    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>321</v>
+      </c>
+      <c r="B323">
+        <v>3503.3798999999999</v>
+      </c>
+      <c r="C323" t="s">
+        <v>0</v>
+      </c>
+      <c r="D323">
+        <v>8505.2626999999993</v>
+      </c>
+      <c r="E323" t="s">
+        <v>1</v>
+      </c>
+      <c r="F323">
+        <v>299.3</v>
+      </c>
+      <c r="G323">
+        <v>0</v>
+      </c>
+      <c r="H323">
+        <v>62.54</v>
+      </c>
+      <c r="I323">
+        <v>7.44</v>
+      </c>
+      <c r="J323">
+        <v>242.93</v>
+      </c>
+    </row>
+    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>322</v>
+      </c>
+      <c r="B324">
+        <v>3503.3789000000002</v>
+      </c>
+      <c r="C324" t="s">
+        <v>0</v>
+      </c>
+      <c r="D324">
+        <v>8505.2646000000004</v>
+      </c>
+      <c r="E324" t="s">
+        <v>1</v>
+      </c>
+      <c r="F324">
+        <v>299</v>
+      </c>
+      <c r="G324">
+        <v>0</v>
+      </c>
+      <c r="H324">
+        <v>62.9</v>
+      </c>
+      <c r="I324">
+        <v>6.8</v>
+      </c>
+      <c r="J324">
+        <v>244.95</v>
+      </c>
+    </row>
+    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>323</v>
+      </c>
+      <c r="B325">
+        <v>3503.3789000000002</v>
+      </c>
+      <c r="C325" t="s">
+        <v>0</v>
+      </c>
+      <c r="D325">
+        <v>8505.2646000000004</v>
+      </c>
+      <c r="E325" t="s">
+        <v>1</v>
+      </c>
+      <c r="F325">
+        <v>299</v>
+      </c>
+      <c r="G325">
+        <v>0</v>
+      </c>
+      <c r="H325">
+        <v>56.27</v>
+      </c>
+      <c r="I325">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J325">
+        <v>244.74</v>
+      </c>
+    </row>
+    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>324</v>
+      </c>
+      <c r="B326">
+        <v>3503.3779</v>
+      </c>
+      <c r="C326" t="s">
+        <v>0</v>
+      </c>
+      <c r="D326">
+        <v>8505.2656000000006</v>
+      </c>
+      <c r="E326" t="s">
+        <v>1</v>
+      </c>
+      <c r="F326">
+        <v>299</v>
+      </c>
+      <c r="G326">
+        <v>0</v>
+      </c>
+      <c r="H326">
+        <v>51.4</v>
+      </c>
+      <c r="I326">
+        <v>4.42</v>
+      </c>
+      <c r="J326">
+        <v>246.14</v>
+      </c>
+    </row>
+    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>325</v>
+      </c>
+      <c r="B327">
+        <v>3503.3773999999999</v>
+      </c>
+      <c r="C327" t="s">
+        <v>0</v>
+      </c>
+      <c r="D327">
+        <v>8505.2666000000008</v>
+      </c>
+      <c r="E327" t="s">
+        <v>1</v>
+      </c>
+      <c r="F327">
+        <v>298.60000000000002</v>
+      </c>
+      <c r="G327">
+        <v>0</v>
+      </c>
+      <c r="H327">
+        <v>53.36</v>
+      </c>
+      <c r="I327">
+        <v>3.93</v>
+      </c>
+      <c r="J327">
+        <v>244.86</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>326</v>
+      </c>
+      <c r="B328">
+        <v>3503.3773999999999</v>
+      </c>
+      <c r="C328" t="s">
+        <v>0</v>
+      </c>
+      <c r="D328">
+        <v>8505.2666000000008</v>
+      </c>
+      <c r="E328" t="s">
+        <v>1</v>
+      </c>
+      <c r="F328">
+        <v>298.60000000000002</v>
+      </c>
+      <c r="G328">
+        <v>0</v>
+      </c>
+      <c r="H328">
+        <v>60.44</v>
+      </c>
+      <c r="I328">
+        <v>0.21</v>
+      </c>
+      <c r="J328">
+        <v>246.87</v>
+      </c>
+    </row>
+    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>327</v>
+      </c>
+      <c r="B329">
+        <v>3503.3766999999998</v>
+      </c>
+      <c r="C329" t="s">
+        <v>0</v>
+      </c>
+      <c r="D329">
+        <v>8505.2675999999992</v>
+      </c>
+      <c r="E329" t="s">
+        <v>1</v>
+      </c>
+      <c r="F329">
+        <v>298.60000000000002</v>
+      </c>
+      <c r="G329">
+        <v>0</v>
+      </c>
+      <c r="H329">
+        <v>61.06</v>
+      </c>
+      <c r="I329">
+        <v>3.96</v>
+      </c>
+      <c r="J329">
+        <v>249.47</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>328</v>
+      </c>
+      <c r="B330">
+        <v>3503.3757000000001</v>
+      </c>
+      <c r="C330" t="s">
+        <v>0</v>
+      </c>
+      <c r="D330">
+        <v>8505.2695000000003</v>
+      </c>
+      <c r="E330" t="s">
+        <v>1</v>
+      </c>
+      <c r="F330">
+        <v>298.60000000000002</v>
+      </c>
+      <c r="G330">
+        <v>0</v>
+      </c>
+      <c r="H330">
+        <v>64.23</v>
+      </c>
+      <c r="I330">
+        <v>0.13</v>
+      </c>
+      <c r="J330">
+        <v>251.09</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>329</v>
+      </c>
+      <c r="B331">
+        <v>3503.3751999999999</v>
+      </c>
+      <c r="C331" t="s">
+        <v>0</v>
+      </c>
+      <c r="D331">
+        <v>8505.2705000000005</v>
+      </c>
+      <c r="E331" t="s">
+        <v>1</v>
+      </c>
+      <c r="F331">
+        <v>298.39999999999998</v>
+      </c>
+      <c r="G331">
+        <v>0</v>
+      </c>
+      <c r="H331">
+        <v>66.69</v>
+      </c>
+      <c r="I331">
+        <v>2.94</v>
+      </c>
+      <c r="J331">
+        <v>252.45</v>
+      </c>
+    </row>
+    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>330</v>
+      </c>
+      <c r="B332">
+        <v>3503.3751999999999</v>
+      </c>
+      <c r="C332" t="s">
+        <v>0</v>
+      </c>
+      <c r="D332">
+        <v>8505.2705000000005</v>
+      </c>
+      <c r="E332" t="s">
+        <v>1</v>
+      </c>
+      <c r="F332">
+        <v>298.39999999999998</v>
+      </c>
+      <c r="G332">
+        <v>0</v>
+      </c>
+      <c r="H332">
+        <v>70.53</v>
+      </c>
+      <c r="I332">
+        <v>3.22</v>
+      </c>
+      <c r="J332">
+        <v>255.35</v>
+      </c>
+    </row>
+    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>331</v>
+      </c>
+      <c r="B333">
+        <v>3503.3744999999999</v>
+      </c>
+      <c r="C333" t="s">
+        <v>0</v>
+      </c>
+      <c r="D333">
+        <v>8505.2724999999991</v>
+      </c>
+      <c r="E333" t="s">
+        <v>1</v>
+      </c>
+      <c r="F333">
+        <v>298.60000000000002</v>
+      </c>
+      <c r="G333">
+        <v>0</v>
+      </c>
+      <c r="H333">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="I333">
+        <v>10.09</v>
+      </c>
+      <c r="J333">
+        <v>256.95999999999998</v>
+      </c>
+    </row>
+    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>332</v>
+      </c>
+      <c r="B334">
+        <v>3503.3737999999998</v>
+      </c>
+      <c r="C334" t="s">
+        <v>0</v>
+      </c>
+      <c r="D334">
+        <v>8505.2734</v>
+      </c>
+      <c r="E334" t="s">
+        <v>1</v>
+      </c>
+      <c r="F334">
+        <v>298.60000000000002</v>
+      </c>
+      <c r="G334">
+        <v>0</v>
+      </c>
+      <c r="H334">
+        <v>74.540000000000006</v>
+      </c>
+      <c r="I334">
+        <v>10.5</v>
+      </c>
+      <c r="J334">
+        <v>259.60000000000002</v>
+      </c>
+    </row>
+    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>333</v>
+      </c>
+      <c r="B335">
+        <v>3503.3733000000002</v>
+      </c>
+      <c r="C335" t="s">
+        <v>0</v>
+      </c>
+      <c r="D335">
+        <v>8505.2744000000002</v>
+      </c>
+      <c r="E335" t="s">
+        <v>1</v>
+      </c>
+      <c r="F335">
+        <v>298.60000000000002</v>
+      </c>
+      <c r="G335">
+        <v>0</v>
+      </c>
+      <c r="H335">
+        <v>73.72</v>
+      </c>
+      <c r="I335">
+        <v>10.16</v>
+      </c>
+      <c r="J335">
+        <v>260.16000000000003</v>
+      </c>
+    </row>
+    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>334</v>
+      </c>
+      <c r="B336">
+        <v>3503.3733000000002</v>
+      </c>
+      <c r="C336" t="s">
+        <v>0</v>
+      </c>
+      <c r="D336">
+        <v>8505.2744000000002</v>
+      </c>
+      <c r="E336" t="s">
+        <v>1</v>
+      </c>
+      <c r="F336">
+        <v>298.60000000000002</v>
+      </c>
+      <c r="G336">
+        <v>0</v>
+      </c>
+      <c r="H336">
+        <v>77.05</v>
+      </c>
+      <c r="I336">
+        <v>11.49</v>
+      </c>
+      <c r="J336">
+        <v>260.70999999999998</v>
+      </c>
+    </row>
+    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>335</v>
+      </c>
+      <c r="B337">
+        <v>3503.3723</v>
+      </c>
+      <c r="C337" t="s">
+        <v>0</v>
+      </c>
+      <c r="D337">
+        <v>8505.2754000000004</v>
+      </c>
+      <c r="E337" t="s">
+        <v>1</v>
+      </c>
+      <c r="F337">
+        <v>299</v>
+      </c>
+      <c r="G337">
+        <v>0</v>
+      </c>
+      <c r="H337">
+        <v>74.56</v>
+      </c>
+      <c r="I337">
+        <v>15.17</v>
+      </c>
+      <c r="J337">
+        <v>261.45999999999998</v>
+      </c>
+    </row>
+    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>336</v>
+      </c>
+      <c r="B338">
+        <v>3503.3721</v>
+      </c>
+      <c r="C338" t="s">
+        <v>0</v>
+      </c>
+      <c r="D338">
+        <v>8505.2772999999997</v>
+      </c>
+      <c r="E338" t="s">
+        <v>1</v>
+      </c>
+      <c r="F338">
+        <v>299</v>
+      </c>
+      <c r="G338">
+        <v>0</v>
+      </c>
+      <c r="H338">
+        <v>75.62</v>
+      </c>
+      <c r="I338">
+        <v>10.84</v>
+      </c>
+      <c r="J338">
+        <v>264.25</v>
+      </c>
+    </row>
+    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>337</v>
+      </c>
+      <c r="B339">
+        <v>3503.3715999999999</v>
+      </c>
+      <c r="C339" t="s">
+        <v>0</v>
+      </c>
+      <c r="D339">
+        <v>8505.2782999999999</v>
+      </c>
+      <c r="E339" t="s">
+        <v>1</v>
+      </c>
+      <c r="F339">
+        <v>298.8</v>
+      </c>
+      <c r="G339">
+        <v>0</v>
+      </c>
+      <c r="H339">
+        <v>73.790000000000006</v>
+      </c>
+      <c r="I339">
+        <v>8.69</v>
+      </c>
+      <c r="J339">
+        <v>265.66000000000003</v>
+      </c>
+    </row>
+    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>338</v>
+      </c>
+      <c r="B340">
+        <v>3503.3715999999999</v>
+      </c>
+      <c r="C340" t="s">
+        <v>0</v>
+      </c>
+      <c r="D340">
+        <v>8505.2782999999999</v>
+      </c>
+      <c r="E340" t="s">
+        <v>1</v>
+      </c>
+      <c r="F340">
+        <v>298.8</v>
+      </c>
+      <c r="G340">
+        <v>0</v>
+      </c>
+      <c r="H340">
+        <v>73.069999999999993</v>
+      </c>
+      <c r="I340">
+        <v>11.16</v>
+      </c>
+      <c r="J340">
+        <v>264.58999999999997</v>
+      </c>
+    </row>
+    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>339</v>
+      </c>
+      <c r="B341">
+        <v>3503.3708000000001</v>
+      </c>
+      <c r="C341" t="s">
+        <v>0</v>
+      </c>
+      <c r="D341">
+        <v>8505.2803000000004</v>
+      </c>
+      <c r="E341" t="s">
+        <v>1</v>
+      </c>
+      <c r="F341">
+        <v>298.89999999999998</v>
+      </c>
+      <c r="G341">
+        <v>0</v>
+      </c>
+      <c r="H341">
+        <v>70.95</v>
+      </c>
+      <c r="I341">
+        <v>17.04</v>
+      </c>
+      <c r="J341">
+        <v>262.22000000000003</v>
+      </c>
+    </row>
+    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>340</v>
+      </c>
+      <c r="B342">
+        <v>3503.3701000000001</v>
+      </c>
+      <c r="C342" t="s">
+        <v>0</v>
+      </c>
+      <c r="D342">
+        <v>8505.2821999999996</v>
+      </c>
+      <c r="E342" t="s">
+        <v>1</v>
+      </c>
+      <c r="F342">
+        <v>298.89999999999998</v>
+      </c>
+      <c r="G342">
+        <v>0</v>
+      </c>
+      <c r="H342">
+        <v>69.48</v>
+      </c>
+      <c r="I342">
+        <v>15.75</v>
+      </c>
+      <c r="J342">
+        <v>264.14999999999998</v>
+      </c>
+    </row>
+    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>341</v>
+      </c>
+      <c r="B343">
+        <v>3503.3699000000001</v>
+      </c>
+      <c r="C343" t="s">
+        <v>0</v>
+      </c>
+      <c r="D343">
+        <v>8505.2831999999999</v>
+      </c>
+      <c r="E343" t="s">
+        <v>1</v>
+      </c>
+      <c r="F343">
+        <v>299.5</v>
+      </c>
+      <c r="G343">
+        <v>0</v>
+      </c>
+      <c r="H343">
+        <v>69.239999999999995</v>
+      </c>
+      <c r="I343">
+        <v>11.02</v>
+      </c>
+      <c r="J343">
+        <v>265.76</v>
+      </c>
+    </row>
+    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>342</v>
+      </c>
+      <c r="B344">
+        <v>3503.3699000000001</v>
+      </c>
+      <c r="C344" t="s">
+        <v>0</v>
+      </c>
+      <c r="D344">
+        <v>8505.2831999999999</v>
+      </c>
+      <c r="E344" t="s">
+        <v>1</v>
+      </c>
+      <c r="F344">
+        <v>299.5</v>
+      </c>
+      <c r="G344">
+        <v>0</v>
+      </c>
+      <c r="H344">
+        <v>70.73</v>
+      </c>
+      <c r="I344">
+        <v>11.56</v>
+      </c>
+      <c r="J344">
+        <v>264.01</v>
+      </c>
+    </row>
+    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>343</v>
+      </c>
+      <c r="B345">
+        <v>3503.3694</v>
+      </c>
+      <c r="C345" t="s">
+        <v>0</v>
+      </c>
+      <c r="D345">
+        <v>8505.2842000000001</v>
+      </c>
+      <c r="E345" t="s">
+        <v>1</v>
+      </c>
+      <c r="F345">
+        <v>299.5</v>
+      </c>
+      <c r="G345">
+        <v>0</v>
+      </c>
+      <c r="H345">
+        <v>71.55</v>
+      </c>
+      <c r="I345">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="J345">
+        <v>262.14999999999998</v>
+      </c>
+    </row>
+    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>344</v>
+      </c>
+      <c r="B346">
+        <v>3503.3683999999998</v>
+      </c>
+      <c r="C346" t="s">
+        <v>0</v>
+      </c>
+      <c r="D346">
+        <v>8505.2842000000001</v>
+      </c>
+      <c r="E346" t="s">
+        <v>1</v>
+      </c>
+      <c r="F346">
+        <v>299.5</v>
+      </c>
+      <c r="G346">
+        <v>0</v>
+      </c>
+      <c r="H346">
+        <v>64.45</v>
+      </c>
+      <c r="I346">
+        <v>1.26</v>
+      </c>
+      <c r="J346">
+        <v>265.82</v>
+      </c>
+    </row>
+    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>345</v>
+      </c>
+      <c r="B347">
+        <v>3503.3679000000002</v>
+      </c>
+      <c r="C347" t="s">
+        <v>0</v>
+      </c>
+      <c r="D347">
+        <v>8505.2831999999999</v>
+      </c>
+      <c r="E347" t="s">
+        <v>1</v>
+      </c>
+      <c r="F347">
+        <v>299.3</v>
+      </c>
+      <c r="G347">
+        <v>0</v>
+      </c>
+      <c r="H347">
+        <v>61.99</v>
+      </c>
+      <c r="I347">
+        <v>0.83</v>
+      </c>
+      <c r="J347">
+        <v>265.91000000000003</v>
+      </c>
+    </row>
+    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>346</v>
+      </c>
+      <c r="B348">
+        <v>3503.3679000000002</v>
+      </c>
+      <c r="C348" t="s">
+        <v>0</v>
+      </c>
+      <c r="D348">
+        <v>8505.2831999999999</v>
+      </c>
+      <c r="E348" t="s">
+        <v>1</v>
+      </c>
+      <c r="F348">
+        <v>299.3</v>
+      </c>
+      <c r="G348">
+        <v>0</v>
+      </c>
+      <c r="H348">
+        <v>61.15</v>
+      </c>
+      <c r="I348">
+        <v>1.26</v>
+      </c>
+      <c r="J348">
+        <v>262.49</v>
+      </c>
+    </row>
+    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>347</v>
+      </c>
+      <c r="B349">
+        <v>3503.3679000000002</v>
+      </c>
+      <c r="C349" t="s">
+        <v>0</v>
+      </c>
+      <c r="D349">
+        <v>8505.2831999999999</v>
+      </c>
+      <c r="E349" t="s">
+        <v>1</v>
+      </c>
+      <c r="F349">
+        <v>299.3</v>
+      </c>
+      <c r="G349">
+        <v>0</v>
+      </c>
+      <c r="H349">
+        <v>64.58</v>
+      </c>
+      <c r="I349">
+        <v>17.36</v>
+      </c>
+      <c r="J349">
+        <v>264.94</v>
+      </c>
+    </row>
+    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>348</v>
+      </c>
+      <c r="B350">
+        <v>3503.3669</v>
+      </c>
+      <c r="C350" t="s">
+        <v>0</v>
+      </c>
+      <c r="D350">
+        <v>8505.2813000000006</v>
+      </c>
+      <c r="E350" t="s">
+        <v>1</v>
+      </c>
+      <c r="F350">
+        <v>299.3</v>
+      </c>
+      <c r="G350">
+        <v>0</v>
+      </c>
+      <c r="H350">
+        <v>56.82</v>
+      </c>
+      <c r="I350">
+        <v>20.82</v>
+      </c>
+      <c r="J350">
+        <v>255.64</v>
+      </c>
+    </row>
+    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>349</v>
+      </c>
+      <c r="B351">
+        <v>3503.3665000000001</v>
+      </c>
+      <c r="C351" t="s">
+        <v>0</v>
+      </c>
+      <c r="D351">
+        <v>8505.2803000000004</v>
+      </c>
+      <c r="E351" t="s">
+        <v>1</v>
+      </c>
+      <c r="F351">
+        <v>300.2</v>
+      </c>
+      <c r="G351">
+        <v>0</v>
+      </c>
+      <c r="H351">
+        <v>66.31</v>
+      </c>
+      <c r="I351">
+        <v>19.89</v>
+      </c>
+      <c r="J351">
+        <v>255.42</v>
+      </c>
+    </row>
+    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>350</v>
+      </c>
+      <c r="B352">
+        <v>3503.3665000000001</v>
+      </c>
+      <c r="C352" t="s">
+        <v>0</v>
+      </c>
+      <c r="D352">
+        <v>8505.2803000000004</v>
+      </c>
+      <c r="E352" t="s">
+        <v>1</v>
+      </c>
+      <c r="F352">
+        <v>300.2</v>
+      </c>
+      <c r="G352">
+        <v>0</v>
+      </c>
+      <c r="H352">
+        <v>65.92</v>
+      </c>
+      <c r="I352">
+        <v>12.69</v>
+      </c>
+      <c r="J352">
+        <v>247.4</v>
+      </c>
+    </row>
+    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>351</v>
+      </c>
+      <c r="B353">
+        <v>3503.3665000000001</v>
+      </c>
+      <c r="C353" t="s">
+        <v>0</v>
+      </c>
+      <c r="D353">
+        <v>8505.2803000000004</v>
+      </c>
+      <c r="E353" t="s">
+        <v>1</v>
+      </c>
+      <c r="F353">
+        <v>300.2</v>
+      </c>
+      <c r="G353">
+        <v>0</v>
+      </c>
+      <c r="H353">
+        <v>67.540000000000006</v>
+      </c>
+      <c r="I353">
+        <v>13.54</v>
+      </c>
+      <c r="J353">
+        <v>241.9</v>
+      </c>
+    </row>
+    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>352</v>
+      </c>
+      <c r="B354">
+        <v>3503.3649999999998</v>
+      </c>
+      <c r="C354" t="s">
+        <v>0</v>
+      </c>
+      <c r="D354">
+        <v>8505.2764000000006</v>
+      </c>
+      <c r="E354" t="s">
+        <v>1</v>
+      </c>
+      <c r="F354">
+        <v>300.2</v>
+      </c>
+      <c r="G354">
+        <v>0</v>
+      </c>
+      <c r="H354">
+        <v>67.760000000000005</v>
+      </c>
+      <c r="I354">
+        <v>22.92</v>
+      </c>
+      <c r="J354">
+        <v>238.92</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
